--- a/testinfo/all_track_results.xlsx
+++ b/testinfo/all_track_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,76 +599,76 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4.mp4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>210</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>5.mp4</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4.mp4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -3029,6 +3029,4492 @@
       </c>
       <c r="I114" t="inlineStr"/>
     </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>44</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>44.mp4</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>50</v>
+      </c>
+      <c r="G116" t="n">
+        <v>85</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>100</v>
+      </c>
+      <c r="G117" t="n">
+        <v>130</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>220</v>
+      </c>
+      <c r="G118" t="n">
+        <v>245</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="n">
+        <v>325</v>
+      </c>
+      <c r="G119" t="n">
+        <v>395</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>460</v>
+      </c>
+      <c r="G120" t="n">
+        <v>500</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="n">
+        <v>510</v>
+      </c>
+      <c r="G121" t="n">
+        <v>580</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="n">
+        <v>735</v>
+      </c>
+      <c r="G122" t="n">
+        <v>785</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>45</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>45.mp4</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6</v>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="n">
+        <v>440</v>
+      </c>
+      <c r="G124" t="n">
+        <v>490</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="n">
+        <v>725</v>
+      </c>
+      <c r="G125" t="n">
+        <v>745</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="n">
+        <v>750</v>
+      </c>
+      <c r="G126" t="n">
+        <v>845</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="n">
+        <v>846</v>
+      </c>
+      <c r="G127" t="n">
+        <v>890</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="n">
+        <v>891</v>
+      </c>
+      <c r="G128" t="n">
+        <v>950</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="n">
+        <v>995</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1105</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>46</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>46.mp4</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3</v>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="n">
+        <v>65</v>
+      </c>
+      <c r="G131" t="n">
+        <v>125</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="n">
+        <v>540</v>
+      </c>
+      <c r="G132" t="n">
+        <v>565</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="n">
+        <v>640</v>
+      </c>
+      <c r="G133" t="n">
+        <v>750</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>47</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>47.mp4</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4</v>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="n">
+        <v>70</v>
+      </c>
+      <c r="G135" t="n">
+        <v>115</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="n">
+        <v>725</v>
+      </c>
+      <c r="G136" t="n">
+        <v>770</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="n">
+        <v>905</v>
+      </c>
+      <c r="G137" t="n">
+        <v>960</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="n">
+        <v>972</v>
+      </c>
+      <c r="G138" t="n">
+        <v>980</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>48</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>48.mp4</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>26</v>
+      </c>
+      <c r="E139" t="n">
+        <v>24</v>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>30</v>
+      </c>
+      <c r="G140" t="n">
+        <v>84</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="n">
+        <v>85</v>
+      </c>
+      <c r="G141" t="n">
+        <v>115</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="n">
+        <v>116</v>
+      </c>
+      <c r="G142" t="n">
+        <v>180</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>181</v>
+      </c>
+      <c r="G143" t="n">
+        <v>210</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>211</v>
+      </c>
+      <c r="G144" t="n">
+        <v>245</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>246</v>
+      </c>
+      <c r="G145" t="n">
+        <v>295</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>296</v>
+      </c>
+      <c r="G146" t="n">
+        <v>335</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>336</v>
+      </c>
+      <c r="G147" t="n">
+        <v>375</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>376</v>
+      </c>
+      <c r="G148" t="n">
+        <v>440</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="n">
+        <v>441</v>
+      </c>
+      <c r="G149" t="n">
+        <v>474</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>475</v>
+      </c>
+      <c r="G150" t="n">
+        <v>514</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>515</v>
+      </c>
+      <c r="G151" t="n">
+        <v>554</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>555</v>
+      </c>
+      <c r="G152" t="n">
+        <v>589</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="n">
+        <v>590</v>
+      </c>
+      <c r="G153" t="n">
+        <v>619</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="n">
+        <v>620</v>
+      </c>
+      <c r="G154" t="n">
+        <v>690</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>691</v>
+      </c>
+      <c r="G155" t="n">
+        <v>750</v>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>845</v>
+      </c>
+      <c r="G156" t="n">
+        <v>895</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="n">
+        <v>960</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1015</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="n">
+        <v>1016</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1045</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="n">
+        <v>1055</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="n">
+        <v>1080</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1119</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="n">
+        <v>1120</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1169</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="n">
+        <v>1170</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1219</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1290</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>49</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>49.mp4</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4</v>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="n">
+        <v>230</v>
+      </c>
+      <c r="G165" t="n">
+        <v>259</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="n">
+        <v>260</v>
+      </c>
+      <c r="G166" t="n">
+        <v>313</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="n">
+        <v>330</v>
+      </c>
+      <c r="G167" t="n">
+        <v>365</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="n">
+        <v>405</v>
+      </c>
+      <c r="G168" t="n">
+        <v>605</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>50</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>50.mp4</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>15</v>
+      </c>
+      <c r="E169" t="n">
+        <v>14</v>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="n">
+        <v>165</v>
+      </c>
+      <c r="G170" t="n">
+        <v>224</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="n">
+        <v>225</v>
+      </c>
+      <c r="G171" t="n">
+        <v>259</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="n">
+        <v>260</v>
+      </c>
+      <c r="G172" t="n">
+        <v>294</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="n">
+        <v>295</v>
+      </c>
+      <c r="G173" t="n">
+        <v>344</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="n">
+        <v>345</v>
+      </c>
+      <c r="G174" t="n">
+        <v>394</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="n">
+        <v>395</v>
+      </c>
+      <c r="G175" t="n">
+        <v>434</v>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="n">
+        <v>435</v>
+      </c>
+      <c r="G176" t="n">
+        <v>474</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="n">
+        <v>475</v>
+      </c>
+      <c r="G177" t="n">
+        <v>505</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="n">
+        <v>530</v>
+      </c>
+      <c r="G178" t="n">
+        <v>604</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="n">
+        <v>605</v>
+      </c>
+      <c r="G179" t="n">
+        <v>654</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>655</v>
+      </c>
+      <c r="G180" t="n">
+        <v>685</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>712</v>
+      </c>
+      <c r="G181" t="n">
+        <v>730</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>980</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1046</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>без жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>51</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>51.mp4</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>6</v>
+      </c>
+      <c r="E184" t="n">
+        <v>6</v>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="n">
+        <v>50</v>
+      </c>
+      <c r="G185" t="n">
+        <v>85</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>215</v>
+      </c>
+      <c r="G186" t="n">
+        <v>242</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="n">
+        <v>930</v>
+      </c>
+      <c r="G187" t="n">
+        <v>954</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="n">
+        <v>955</v>
+      </c>
+      <c r="G188" t="n">
+        <v>979</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="n">
+        <v>980</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1370</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>52</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>52.mp4</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>6</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>11</v>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>17</v>
+      </c>
+      <c r="G192" t="n">
+        <v>41</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>45</v>
+      </c>
+      <c r="G193" t="n">
+        <v>85</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>175</v>
+      </c>
+      <c r="G194" t="n">
+        <v>207</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>208</v>
+      </c>
+      <c r="G195" t="n">
+        <v>256</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>270</v>
+      </c>
+      <c r="G196" t="n">
+        <v>560</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>628</v>
+      </c>
+      <c r="G197" t="n">
+        <v>667</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="n">
+        <v>690</v>
+      </c>
+      <c r="G198" t="n">
+        <v>726</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="n">
+        <v>727</v>
+      </c>
+      <c r="G199" t="n">
+        <v>772</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="n">
+        <v>773</v>
+      </c>
+      <c r="G200" t="n">
+        <v>810</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="n">
+        <v>850</v>
+      </c>
+      <c r="G201" t="n">
+        <v>900</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr"/>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="n">
+        <v>933</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1456</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>53</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>53.mp4</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>2</v>
+      </c>
+      <c r="D203" t="n">
+        <v>22</v>
+      </c>
+      <c r="E203" t="n">
+        <v>24</v>
+      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="n">
+        <v>74</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="n">
+        <v>75</v>
+      </c>
+      <c r="G205" t="n">
+        <v>159</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="n">
+        <v>160</v>
+      </c>
+      <c r="G206" t="n">
+        <v>215</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="n">
+        <v>216</v>
+      </c>
+      <c r="G207" t="n">
+        <v>263</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="n">
+        <v>265</v>
+      </c>
+      <c r="G208" t="n">
+        <v>320</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr"/>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="n">
+        <v>321</v>
+      </c>
+      <c r="G209" t="n">
+        <v>263</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr"/>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="n">
+        <v>441</v>
+      </c>
+      <c r="G210" t="n">
+        <v>464</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr"/>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="n">
+        <v>519</v>
+      </c>
+      <c r="G211" t="n">
+        <v>541</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr"/>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="n">
+        <v>542</v>
+      </c>
+      <c r="G212" t="n">
+        <v>583</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>без жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr"/>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="n">
+        <v>706</v>
+      </c>
+      <c r="G213" t="n">
+        <v>741</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr"/>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="n">
+        <v>742</v>
+      </c>
+      <c r="G214" t="n">
+        <v>789</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr"/>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="n">
+        <v>800</v>
+      </c>
+      <c r="G215" t="n">
+        <v>836</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr"/>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="n">
+        <v>844</v>
+      </c>
+      <c r="G216" t="n">
+        <v>878</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr"/>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="n">
+        <v>879</v>
+      </c>
+      <c r="G217" t="n">
+        <v>929</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr"/>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="n">
+        <v>930</v>
+      </c>
+      <c r="G218" t="n">
+        <v>980</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr"/>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="n">
+        <v>981</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1016</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr"/>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="n">
+        <v>1020</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1064</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr"/>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr"/>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1169</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr"/>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="n">
+        <v>1170</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1240</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr"/>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="n">
+        <v>1260</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr"/>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="n">
+        <v>1310</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1330</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr"/>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="n">
+        <v>1338</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1379</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr"/>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="n">
+        <v>1381</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1415</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>54</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>54.mp4</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>2</v>
+      </c>
+      <c r="D228" t="n">
+        <v>8</v>
+      </c>
+      <c r="E228" t="n">
+        <v>9</v>
+      </c>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr"/>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="n">
+        <v>160</v>
+      </c>
+      <c r="G229" t="n">
+        <v>197</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr"/>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="n">
+        <v>230</v>
+      </c>
+      <c r="G230" t="n">
+        <v>255</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr"/>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="n">
+        <v>260</v>
+      </c>
+      <c r="G231" t="n">
+        <v>315</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr"/>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="n">
+        <v>317</v>
+      </c>
+      <c r="G232" t="n">
+        <v>360</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr"/>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="n">
+        <v>365</v>
+      </c>
+      <c r="G233" t="n">
+        <v>423</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr"/>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="n">
+        <v>511</v>
+      </c>
+      <c r="G234" t="n">
+        <v>555</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr"/>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="n">
+        <v>603</v>
+      </c>
+      <c r="G235" t="n">
+        <v>639</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr"/>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="n">
+        <v>640</v>
+      </c>
+      <c r="G236" t="n">
+        <v>705</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr"/>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="n">
+        <v>706</v>
+      </c>
+      <c r="G237" t="n">
+        <v>746</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>61</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>61.mp4</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" t="n">
+        <v>9</v>
+      </c>
+      <c r="E238" t="n">
+        <v>9</v>
+      </c>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr"/>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="n">
+        <v>44</v>
+      </c>
+      <c r="G239" t="n">
+        <v>71</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr"/>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="n">
+        <v>72</v>
+      </c>
+      <c r="G240" t="n">
+        <v>132</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr"/>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="n">
+        <v>133</v>
+      </c>
+      <c r="G241" t="n">
+        <v>169</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr"/>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="n">
+        <v>178</v>
+      </c>
+      <c r="G242" t="n">
+        <v>217</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr"/>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="n">
+        <v>220</v>
+      </c>
+      <c r="G243" t="n">
+        <v>250</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr"/>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="n">
+        <v>255</v>
+      </c>
+      <c r="G244" t="n">
+        <v>315</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr"/>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="n">
+        <v>320</v>
+      </c>
+      <c r="G245" t="n">
+        <v>352</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr"/>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="n">
+        <v>352</v>
+      </c>
+      <c r="G246" t="n">
+        <v>397</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr"/>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="n">
+        <v>432</v>
+      </c>
+      <c r="G247" t="n">
+        <v>450</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>62</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>62.mp4</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="n">
+        <v>8</v>
+      </c>
+      <c r="E248" t="n">
+        <v>9</v>
+      </c>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr"/>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="n">
+        <v>9</v>
+      </c>
+      <c r="G249" t="n">
+        <v>52</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr"/>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="n">
+        <v>433</v>
+      </c>
+      <c r="G250" t="n">
+        <v>456</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr"/>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="n">
+        <v>460</v>
+      </c>
+      <c r="G251" t="n">
+        <v>509</v>
+      </c>
+      <c r="H251" t="n">
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr"/>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="n">
+        <v>701</v>
+      </c>
+      <c r="G252" t="n">
+        <v>720</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr"/>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="n">
+        <v>730</v>
+      </c>
+      <c r="G253" t="n">
+        <v>758</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr"/>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="n">
+        <v>770</v>
+      </c>
+      <c r="G254" t="n">
+        <v>794</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr"/>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="n">
+        <v>854</v>
+      </c>
+      <c r="G255" t="n">
+        <v>889</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr"/>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="n">
+        <v>938</v>
+      </c>
+      <c r="G256" t="n">
+        <v>973</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr"/>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="n">
+        <v>1013</v>
+      </c>
+      <c r="G257" t="n">
+        <v>984</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>63</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>63.mp4</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>7</v>
+      </c>
+      <c r="E258" t="n">
+        <v>6</v>
+      </c>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr"/>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="n">
+        <v>351</v>
+      </c>
+      <c r="G259" t="n">
+        <v>395</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr"/>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="n">
+        <v>292</v>
+      </c>
+      <c r="G260" t="n">
+        <v>350</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr"/>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="n">
+        <v>250</v>
+      </c>
+      <c r="G261" t="n">
+        <v>290</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1</v>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr"/>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="n">
+        <v>180</v>
+      </c>
+      <c r="G262" t="n">
+        <v>236</v>
+      </c>
+      <c r="H262" t="n">
+        <v>2</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>без жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr"/>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="n">
+        <v>84</v>
+      </c>
+      <c r="G263" t="n">
+        <v>130</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr"/>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="n">
+        <v>65</v>
+      </c>
+      <c r="G264" t="n">
+        <v>83</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>64</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>64.mp4</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>4</v>
+      </c>
+      <c r="D265" t="n">
+        <v>5</v>
+      </c>
+      <c r="E265" t="n">
+        <v>9</v>
+      </c>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr"/>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="n">
+        <v>1583</v>
+      </c>
+      <c r="G266" t="n">
+        <v>1613</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr"/>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="n">
+        <v>1504</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1574</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr"/>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="n">
+        <v>1260</v>
+      </c>
+      <c r="G268" t="n">
+        <v>1398</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr"/>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="n">
+        <v>1151</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1259</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr"/>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="n">
+        <v>881</v>
+      </c>
+      <c r="G270" t="n">
+        <v>902</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr"/>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="n">
+        <v>519</v>
+      </c>
+      <c r="G271" t="n">
+        <v>546</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr"/>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="n">
+        <v>143</v>
+      </c>
+      <c r="G272" t="n">
+        <v>107</v>
+      </c>
+      <c r="H272" t="n">
+        <v>2</v>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>без жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr"/>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="n">
+        <v>105</v>
+      </c>
+      <c r="G273" t="n">
+        <v>69</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr"/>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="n">
+        <v>68</v>
+      </c>
+      <c r="G274" t="n">
+        <v>42</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>65</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>65.mp4</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>6</v>
+      </c>
+      <c r="E275" t="n">
+        <v>5</v>
+      </c>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr"/>
+      <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="n">
+        <v>691</v>
+      </c>
+      <c r="G276" t="n">
+        <v>743</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr"/>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="n">
+        <v>663</v>
+      </c>
+      <c r="G277" t="n">
+        <v>681</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr"/>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="n">
+        <v>478</v>
+      </c>
+      <c r="G278" t="n">
+        <v>650</v>
+      </c>
+      <c r="H278" t="n">
+        <v>2</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>без жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr"/>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="n">
+        <v>347</v>
+      </c>
+      <c r="G279" t="n">
+        <v>372</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr"/>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="n">
+        <v>320</v>
+      </c>
+      <c r="G280" t="n">
+        <v>346</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>66</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>66.mp4</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>4</v>
+      </c>
+      <c r="E281" t="n">
+        <v>4</v>
+      </c>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr"/>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="n">
+        <v>510</v>
+      </c>
+      <c r="G282" t="n">
+        <v>537</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr"/>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="n">
+        <v>119</v>
+      </c>
+      <c r="G283" t="n">
+        <v>173</v>
+      </c>
+      <c r="H283" t="n">
+        <v>2</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>без жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr"/>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="n">
+        <v>58</v>
+      </c>
+      <c r="G284" t="n">
+        <v>113</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr"/>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="n">
+        <v>32</v>
+      </c>
+      <c r="G285" t="n">
+        <v>56</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>67</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>67.mp4</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>4</v>
+      </c>
+      <c r="E286" t="n">
+        <v>8</v>
+      </c>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr"/>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="n">
+        <v>807</v>
+      </c>
+      <c r="G287" t="n">
+        <v>850</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr"/>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="n">
+        <v>712</v>
+      </c>
+      <c r="G288" t="n">
+        <v>780</v>
+      </c>
+      <c r="H288" t="n">
+        <v>2</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>без жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr"/>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="n">
+        <v>450</v>
+      </c>
+      <c r="G289" t="n">
+        <v>498</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr"/>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="n">
+        <v>395</v>
+      </c>
+      <c r="G290" t="n">
+        <v>443</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr"/>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="n">
+        <v>197</v>
+      </c>
+      <c r="G291" t="n">
+        <v>232</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr"/>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="n">
+        <v>165</v>
+      </c>
+      <c r="G292" t="n">
+        <v>196</v>
+      </c>
+      <c r="H292" t="n">
+        <v>2</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>без жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr"/>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="n">
+        <v>81</v>
+      </c>
+      <c r="G293" t="n">
+        <v>110</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr"/>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="n">
+        <v>31</v>
+      </c>
+      <c r="G294" t="n">
+        <v>80</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>68</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>68.mp4</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>3</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2</v>
+      </c>
+      <c r="E295" t="n">
+        <v>4</v>
+      </c>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr"/>
+      <c r="B296" t="inlineStr"/>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="n">
+        <v>80</v>
+      </c>
+      <c r="G296" t="n">
+        <v>95</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr"/>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="n">
+        <v>200</v>
+      </c>
+      <c r="G297" t="n">
+        <v>250</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr"/>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="n">
+        <v>280</v>
+      </c>
+      <c r="G298" t="n">
+        <v>310</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr"/>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="n">
+        <v>340</v>
+      </c>
+      <c r="G299" t="n">
+        <v>365</v>
+      </c>
+      <c r="H299" t="n">
+        <v>1</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>69</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>69.mp4</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>4</v>
+      </c>
+      <c r="D300" t="n">
+        <v>4</v>
+      </c>
+      <c r="E300" t="n">
+        <v>8</v>
+      </c>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr"/>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="n">
+        <v>85</v>
+      </c>
+      <c r="G301" t="n">
+        <v>100</v>
+      </c>
+      <c r="H301" t="n">
+        <v>3</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr"/>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="n">
+        <v>230</v>
+      </c>
+      <c r="G302" t="n">
+        <v>250</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr"/>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="n">
+        <v>260</v>
+      </c>
+      <c r="G303" t="n">
+        <v>280</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr"/>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="n">
+        <v>360</v>
+      </c>
+      <c r="G304" t="n">
+        <v>380</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr"/>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="n">
+        <v>410</v>
+      </c>
+      <c r="G305" t="n">
+        <v>425</v>
+      </c>
+      <c r="H305" t="n">
+        <v>1</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr"/>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="n">
+        <v>490</v>
+      </c>
+      <c r="G306" t="n">
+        <v>520</v>
+      </c>
+      <c r="H306" t="n">
+        <v>1</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr"/>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="n">
+        <v>600</v>
+      </c>
+      <c r="G307" t="n">
+        <v>615</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr"/>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="n">
+        <v>650</v>
+      </c>
+      <c r="G308" t="n">
+        <v>680</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>70</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>70.mp4</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>3</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1</v>
+      </c>
+      <c r="E309" t="n">
+        <v>4</v>
+      </c>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr"/>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="n">
+        <v>30</v>
+      </c>
+      <c r="G310" t="n">
+        <v>120</v>
+      </c>
+      <c r="H310" t="n">
+        <v>3</v>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr"/>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="n">
+        <v>150</v>
+      </c>
+      <c r="G311" t="n">
+        <v>165</v>
+      </c>
+      <c r="H311" t="n">
+        <v>1</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr"/>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="n">
+        <v>270</v>
+      </c>
+      <c r="G312" t="n">
+        <v>280</v>
+      </c>
+      <c r="H312" t="n">
+        <v>1</v>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr"/>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="n">
+        <v>560</v>
+      </c>
+      <c r="G313" t="n">
+        <v>620</v>
+      </c>
+      <c r="H313" t="n">
+        <v>3</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>71</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>71.mp4</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>3</v>
+      </c>
+      <c r="D314" t="n">
+        <v>3</v>
+      </c>
+      <c r="E314" t="n">
+        <v>7</v>
+      </c>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr"/>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="n">
+        <v>30</v>
+      </c>
+      <c r="G315" t="n">
+        <v>80</v>
+      </c>
+      <c r="H315" t="n">
+        <v>3</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr"/>
+      <c r="B316" t="inlineStr"/>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="n">
+        <v>110</v>
+      </c>
+      <c r="G316" t="n">
+        <v>130</v>
+      </c>
+      <c r="H316" t="n">
+        <v>1</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr"/>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="n">
+        <v>210</v>
+      </c>
+      <c r="G317" t="n">
+        <v>235</v>
+      </c>
+      <c r="H317" t="n">
+        <v>1</v>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr"/>
+      <c r="B318" t="inlineStr"/>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="n">
+        <v>730</v>
+      </c>
+      <c r="G318" t="n">
+        <v>760</v>
+      </c>
+      <c r="H318" t="n">
+        <v>1</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr"/>
+      <c r="B319" t="inlineStr"/>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="n">
+        <v>880</v>
+      </c>
+      <c r="G319" t="n">
+        <v>910</v>
+      </c>
+      <c r="H319" t="n">
+        <v>1</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr"/>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="n">
+        <v>960</v>
+      </c>
+      <c r="G320" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1</v>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr"/>
+      <c r="B321" t="inlineStr"/>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="n">
+        <v>1120</v>
+      </c>
+      <c r="G321" t="n">
+        <v>1140</v>
+      </c>
+      <c r="H321" t="n">
+        <v>1</v>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>72</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>72.mp4</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>2</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E322" t="n">
+        <v>4</v>
+      </c>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr"/>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="n">
+        <v>320</v>
+      </c>
+      <c r="G323" t="n">
+        <v>370</v>
+      </c>
+      <c r="H323" t="n">
+        <v>3</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr"/>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="n">
+        <v>440</v>
+      </c>
+      <c r="G324" t="n">
+        <v>470</v>
+      </c>
+      <c r="H324" t="n">
+        <v>1</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr"/>
+      <c r="B325" t="inlineStr"/>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="n">
+        <v>510</v>
+      </c>
+      <c r="G325" t="n">
+        <v>525</v>
+      </c>
+      <c r="H325" t="n">
+        <v>1</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr"/>
+      <c r="B326" t="inlineStr"/>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="n">
+        <v>540</v>
+      </c>
+      <c r="G326" t="n">
+        <v>590</v>
+      </c>
+      <c r="H326" t="n">
+        <v>3</v>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testinfo/all_track_results.xlsx
+++ b/testinfo/all_track_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I326"/>
+  <dimension ref="A1:I359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5624,21 +5624,21 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>61.mp4</t>
+          <t>55.mp4</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D238" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E238" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
@@ -5652,19 +5652,15 @@
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="G239" t="n">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr"/>
@@ -5673,10 +5669,10 @@
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="n">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="G240" t="n">
-        <v>132</v>
+        <v>287</v>
       </c>
       <c r="H240" t="n">
         <v>1</v>
@@ -5694,10 +5690,10 @@
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="n">
-        <v>133</v>
+        <v>610</v>
       </c>
       <c r="G241" t="n">
-        <v>169</v>
+        <v>697</v>
       </c>
       <c r="H241" t="n">
         <v>1</v>
@@ -5715,10 +5711,10 @@
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="n">
-        <v>178</v>
+        <v>710</v>
       </c>
       <c r="G242" t="n">
-        <v>217</v>
+        <v>724</v>
       </c>
       <c r="H242" t="n">
         <v>1</v>
@@ -5736,10 +5732,10 @@
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="n">
-        <v>220</v>
+        <v>753</v>
       </c>
       <c r="G243" t="n">
-        <v>250</v>
+        <v>776</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
@@ -5757,10 +5753,10 @@
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="n">
-        <v>255</v>
+        <v>844</v>
       </c>
       <c r="G244" t="n">
-        <v>315</v>
+        <v>862</v>
       </c>
       <c r="H244" t="n">
         <v>1</v>
@@ -5778,10 +5774,10 @@
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="n">
-        <v>320</v>
+        <v>868</v>
       </c>
       <c r="G245" t="n">
-        <v>352</v>
+        <v>903</v>
       </c>
       <c r="H245" t="n">
         <v>1</v>
@@ -5799,10 +5795,10 @@
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>352</v>
+        <v>947</v>
       </c>
       <c r="G246" t="n">
-        <v>397</v>
+        <v>975</v>
       </c>
       <c r="H246" t="n">
         <v>1</v>
@@ -5814,48 +5810,48 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr"/>
-      <c r="B247" t="inlineStr"/>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr"/>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="n">
-        <v>432</v>
-      </c>
-      <c r="G247" t="n">
-        <v>450</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A247" t="n">
+        <v>56</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>56.mp4</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>2</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4</v>
+      </c>
+      <c r="E247" t="n">
+        <v>6</v>
+      </c>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
     </row>
     <row r="248">
-      <c r="A248" t="n">
-        <v>62</v>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>62.mp4</t>
-        </is>
-      </c>
-      <c r="C248" t="n">
-        <v>1</v>
-      </c>
-      <c r="D248" t="n">
-        <v>8</v>
-      </c>
-      <c r="E248" t="n">
-        <v>9</v>
-      </c>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
+      <c r="A248" t="inlineStr"/>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="n">
+        <v>183</v>
+      </c>
+      <c r="G248" t="n">
+        <v>212</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr"/>
@@ -5864,19 +5860,15 @@
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="n">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="G249" t="n">
-        <v>52</v>
+        <v>256</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr"/>
@@ -5885,17 +5877,17 @@
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="n">
-        <v>433</v>
+        <v>300</v>
       </c>
       <c r="G250" t="n">
-        <v>456</v>
+        <v>325</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
@@ -5906,17 +5898,17 @@
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="n">
-        <v>460</v>
+        <v>355</v>
       </c>
       <c r="G251" t="n">
-        <v>509</v>
+        <v>385</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>без каски</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -5927,10 +5919,10 @@
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>701</v>
+        <v>424</v>
       </c>
       <c r="G252" t="n">
-        <v>720</v>
+        <v>485</v>
       </c>
       <c r="H252" t="n">
         <v>1</v>
@@ -5948,10 +5940,10 @@
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>730</v>
+        <v>557</v>
       </c>
       <c r="G253" t="n">
-        <v>758</v>
+        <v>579</v>
       </c>
       <c r="H253" t="n">
         <v>1</v>
@@ -5963,25 +5955,27 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr"/>
-      <c r="B254" t="inlineStr"/>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="n">
-        <v>770</v>
-      </c>
-      <c r="G254" t="n">
-        <v>794</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A254" t="n">
+        <v>57</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>57.mp4</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>3</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2</v>
+      </c>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr"/>
@@ -5990,17 +5984,17 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>854</v>
+        <v>87</v>
       </c>
       <c r="G255" t="n">
-        <v>889</v>
+        <v>104</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без каски</t>
         </is>
       </c>
     </row>
@@ -6011,10 +6005,10 @@
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>938</v>
+        <v>148</v>
       </c>
       <c r="G256" t="n">
-        <v>973</v>
+        <v>164</v>
       </c>
       <c r="H256" t="n">
         <v>1</v>
@@ -6026,48 +6020,48 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr"/>
-      <c r="B257" t="inlineStr"/>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr"/>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="n">
-        <v>1013</v>
-      </c>
-      <c r="G257" t="n">
-        <v>984</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A257" t="n">
+        <v>58</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>58.mp4</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>2</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2</v>
+      </c>
+      <c r="E257" t="n">
+        <v>4</v>
+      </c>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" t="inlineStr"/>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="n">
         <v>63</v>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>63.mp4</t>
-        </is>
-      </c>
-      <c r="C258" t="n">
-        <v>0</v>
-      </c>
-      <c r="D258" t="n">
-        <v>7</v>
-      </c>
-      <c r="E258" t="n">
-        <v>6</v>
-      </c>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
+      <c r="G258" t="n">
+        <v>78</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr"/>
@@ -6076,10 +6070,10 @@
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>351</v>
+        <v>98</v>
       </c>
       <c r="G259" t="n">
-        <v>395</v>
+        <v>118</v>
       </c>
       <c r="H259" t="n">
         <v>1</v>
@@ -6097,10 +6091,10 @@
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>292</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
-        <v>350</v>
+        <v>526</v>
       </c>
       <c r="H260" t="n">
         <v>1</v>
@@ -6118,10 +6112,10 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>250</v>
+        <v>780</v>
       </c>
       <c r="G261" t="n">
-        <v>290</v>
+        <v>809</v>
       </c>
       <c r="H261" t="n">
         <v>1</v>
@@ -6133,25 +6127,27 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr"/>
-      <c r="B262" t="inlineStr"/>
-      <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr"/>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="n">
-        <v>180</v>
-      </c>
-      <c r="G262" t="n">
-        <v>236</v>
-      </c>
-      <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="inlineStr">
-        <is>
-          <t>без жилета</t>
-        </is>
-      </c>
+      <c r="A262" t="n">
+        <v>59</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>59.mp4</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>3</v>
+      </c>
+      <c r="E262" t="n">
+        <v>4</v>
+      </c>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr"/>
@@ -6160,10 +6156,10 @@
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c r="G263" t="n">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="H263" t="n">
         <v>1</v>
@@ -6181,10 +6177,10 @@
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
-        <v>65</v>
+        <v>530</v>
       </c>
       <c r="G264" t="n">
-        <v>83</v>
+        <v>660</v>
       </c>
       <c r="H264" t="n">
         <v>1</v>
@@ -6196,27 +6192,25 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
-        <v>64</v>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>64.mp4</t>
-        </is>
-      </c>
-      <c r="C265" t="n">
-        <v>4</v>
-      </c>
-      <c r="D265" t="n">
-        <v>5</v>
-      </c>
-      <c r="E265" t="n">
-        <v>9</v>
-      </c>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
+      <c r="A265" t="inlineStr"/>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="n">
+        <v>744</v>
+      </c>
+      <c r="G265" t="n">
+        <v>764</v>
+      </c>
+      <c r="H265" t="n">
+        <v>3</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr"/>
@@ -6225,10 +6219,10 @@
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="n">
-        <v>1583</v>
+        <v>782</v>
       </c>
       <c r="G266" t="n">
-        <v>1613</v>
+        <v>807</v>
       </c>
       <c r="H266" t="n">
         <v>1</v>
@@ -6240,25 +6234,27 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr"/>
-      <c r="B267" t="inlineStr"/>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="n">
-        <v>1504</v>
-      </c>
-      <c r="G267" t="n">
-        <v>1574</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A267" t="n">
+        <v>60</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>60.mp4</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3</v>
+      </c>
+      <c r="E267" t="n">
+        <v>3</v>
+      </c>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr"/>
@@ -6267,10 +6263,10 @@
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="n">
-        <v>1260</v>
+        <v>55</v>
       </c>
       <c r="G268" t="n">
-        <v>1398</v>
+        <v>72</v>
       </c>
       <c r="H268" t="n">
         <v>1</v>
@@ -6288,10 +6284,10 @@
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="n">
-        <v>1151</v>
+        <v>80</v>
       </c>
       <c r="G269" t="n">
-        <v>1259</v>
+        <v>130</v>
       </c>
       <c r="H269" t="n">
         <v>1</v>
@@ -6309,10 +6305,10 @@
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="n">
-        <v>881</v>
+        <v>186</v>
       </c>
       <c r="G270" t="n">
-        <v>902</v>
+        <v>211</v>
       </c>
       <c r="H270" t="n">
         <v>1</v>
@@ -6324,25 +6320,27 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr"/>
-      <c r="B271" t="inlineStr"/>
-      <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr"/>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="n">
-        <v>519</v>
-      </c>
-      <c r="G271" t="n">
-        <v>546</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A271" t="n">
+        <v>61</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>61.mp4</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>9</v>
+      </c>
+      <c r="E271" t="n">
+        <v>9</v>
+      </c>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr"/>
@@ -6351,17 +6349,17 @@
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="n">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="G272" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>без жилета</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -6372,10 +6370,10 @@
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="n">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="G273" t="n">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="H273" t="n">
         <v>1</v>
@@ -6393,10 +6391,10 @@
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="n">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="G274" t="n">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="H274" t="n">
         <v>1</v>
@@ -6408,27 +6406,25 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
-        <v>65</v>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>65.mp4</t>
-        </is>
-      </c>
-      <c r="C275" t="n">
-        <v>0</v>
-      </c>
-      <c r="D275" t="n">
-        <v>6</v>
-      </c>
-      <c r="E275" t="n">
-        <v>5</v>
-      </c>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr"/>
+      <c r="A275" t="inlineStr"/>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="n">
+        <v>178</v>
+      </c>
+      <c r="G275" t="n">
+        <v>217</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr"/>
@@ -6437,10 +6433,10 @@
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="n">
-        <v>691</v>
+        <v>220</v>
       </c>
       <c r="G276" t="n">
-        <v>743</v>
+        <v>250</v>
       </c>
       <c r="H276" t="n">
         <v>1</v>
@@ -6458,10 +6454,10 @@
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="n">
-        <v>663</v>
+        <v>255</v>
       </c>
       <c r="G277" t="n">
-        <v>681</v>
+        <v>315</v>
       </c>
       <c r="H277" t="n">
         <v>1</v>
@@ -6479,17 +6475,17 @@
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="n">
-        <v>478</v>
+        <v>320</v>
       </c>
       <c r="G278" t="n">
-        <v>650</v>
+        <v>352</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>без жилета</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -6500,10 +6496,10 @@
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G279" t="n">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="H279" t="n">
         <v>1</v>
@@ -6521,10 +6517,10 @@
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="n">
-        <v>320</v>
+        <v>432</v>
       </c>
       <c r="G280" t="n">
-        <v>346</v>
+        <v>450</v>
       </c>
       <c r="H280" t="n">
         <v>1</v>
@@ -6537,21 +6533,21 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>66.mp4</t>
+          <t>62.mp4</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D281" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E281" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr"/>
@@ -6565,10 +6561,10 @@
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="n">
-        <v>510</v>
+        <v>9</v>
       </c>
       <c r="G282" t="n">
-        <v>537</v>
+        <v>52</v>
       </c>
       <c r="H282" t="n">
         <v>1</v>
@@ -6586,17 +6582,17 @@
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="n">
-        <v>119</v>
+        <v>433</v>
       </c>
       <c r="G283" t="n">
-        <v>173</v>
+        <v>456</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>без жилета</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -6607,17 +6603,17 @@
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
-        <v>58</v>
+        <v>460</v>
       </c>
       <c r="G284" t="n">
-        <v>113</v>
+        <v>509</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без каски</t>
         </is>
       </c>
     </row>
@@ -6628,10 +6624,10 @@
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="n">
-        <v>32</v>
+        <v>701</v>
       </c>
       <c r="G285" t="n">
-        <v>56</v>
+        <v>720</v>
       </c>
       <c r="H285" t="n">
         <v>1</v>
@@ -6643,27 +6639,25 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
-        <v>67</v>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>67.mp4</t>
-        </is>
-      </c>
-      <c r="C286" t="n">
-        <v>0</v>
-      </c>
-      <c r="D286" t="n">
-        <v>4</v>
-      </c>
-      <c r="E286" t="n">
-        <v>8</v>
-      </c>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-      <c r="H286" t="inlineStr"/>
-      <c r="I286" t="inlineStr"/>
+      <c r="A286" t="inlineStr"/>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="n">
+        <v>730</v>
+      </c>
+      <c r="G286" t="n">
+        <v>758</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr"/>
@@ -6672,10 +6666,10 @@
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="n">
-        <v>807</v>
+        <v>770</v>
       </c>
       <c r="G287" t="n">
-        <v>850</v>
+        <v>794</v>
       </c>
       <c r="H287" t="n">
         <v>1</v>
@@ -6693,17 +6687,17 @@
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="n">
-        <v>712</v>
+        <v>854</v>
       </c>
       <c r="G288" t="n">
-        <v>780</v>
+        <v>889</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>без жилета</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -6714,10 +6708,10 @@
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="n">
-        <v>450</v>
+        <v>938</v>
       </c>
       <c r="G289" t="n">
-        <v>498</v>
+        <v>973</v>
       </c>
       <c r="H289" t="n">
         <v>1</v>
@@ -6735,10 +6729,10 @@
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="n">
-        <v>395</v>
+        <v>1013</v>
       </c>
       <c r="G290" t="n">
-        <v>443</v>
+        <v>984</v>
       </c>
       <c r="H290" t="n">
         <v>1</v>
@@ -6750,25 +6744,27 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr"/>
-      <c r="B291" t="inlineStr"/>
-      <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr"/>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="n">
-        <v>197</v>
-      </c>
-      <c r="G291" t="n">
-        <v>232</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A291" t="n">
+        <v>63</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>63.mp4</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>7</v>
+      </c>
+      <c r="E291" t="n">
+        <v>6</v>
+      </c>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr"/>
@@ -6777,17 +6773,17 @@
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="n">
-        <v>165</v>
+        <v>351</v>
       </c>
       <c r="G292" t="n">
-        <v>196</v>
+        <v>395</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>без жилета</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -6798,10 +6794,10 @@
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="n">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="G293" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="H293" t="n">
         <v>1</v>
@@ -6819,10 +6815,10 @@
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="n">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="G294" t="n">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="H294" t="n">
         <v>1</v>
@@ -6834,27 +6830,25 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
-        <v>68</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>68.mp4</t>
-        </is>
-      </c>
-      <c r="C295" t="n">
-        <v>3</v>
-      </c>
-      <c r="D295" t="n">
+      <c r="A295" t="inlineStr"/>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="n">
+        <v>180</v>
+      </c>
+      <c r="G295" t="n">
+        <v>236</v>
+      </c>
+      <c r="H295" t="n">
         <v>2</v>
       </c>
-      <c r="E295" t="n">
-        <v>4</v>
-      </c>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr"/>
-      <c r="I295" t="inlineStr"/>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>без жилета</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr"/>
@@ -6863,10 +6857,10 @@
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G296" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="H296" t="n">
         <v>1</v>
@@ -6884,10 +6878,10 @@
       <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="G297" t="n">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="H297" t="n">
         <v>1</v>
@@ -6899,25 +6893,27 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr"/>
-      <c r="B298" t="inlineStr"/>
-      <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr"/>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="n">
-        <v>280</v>
-      </c>
-      <c r="G298" t="n">
-        <v>310</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A298" t="n">
+        <v>64</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>64.mp4</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>4</v>
+      </c>
+      <c r="D298" t="n">
+        <v>5</v>
+      </c>
+      <c r="E298" t="n">
+        <v>9</v>
+      </c>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr"/>
@@ -6926,10 +6922,10 @@
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="n">
-        <v>340</v>
+        <v>1583</v>
       </c>
       <c r="G299" t="n">
-        <v>365</v>
+        <v>1613</v>
       </c>
       <c r="H299" t="n">
         <v>1</v>
@@ -6941,27 +6937,25 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="n">
-        <v>69</v>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>69.mp4</t>
-        </is>
-      </c>
-      <c r="C300" t="n">
-        <v>4</v>
-      </c>
-      <c r="D300" t="n">
-        <v>4</v>
-      </c>
-      <c r="E300" t="n">
-        <v>8</v>
-      </c>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-      <c r="H300" t="inlineStr"/>
-      <c r="I300" t="inlineStr"/>
+      <c r="A300" t="inlineStr"/>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="n">
+        <v>1504</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1574</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr"/>
@@ -6970,17 +6964,17 @@
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="n">
-        <v>85</v>
+        <v>1260</v>
       </c>
       <c r="G301" t="n">
-        <v>100</v>
+        <v>1398</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>без каски</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -6991,10 +6985,10 @@
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="n">
-        <v>230</v>
+        <v>1151</v>
       </c>
       <c r="G302" t="n">
-        <v>250</v>
+        <v>1259</v>
       </c>
       <c r="H302" t="n">
         <v>1</v>
@@ -7012,10 +7006,10 @@
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="n">
-        <v>260</v>
+        <v>881</v>
       </c>
       <c r="G303" t="n">
-        <v>280</v>
+        <v>902</v>
       </c>
       <c r="H303" t="n">
         <v>1</v>
@@ -7033,10 +7027,10 @@
       <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="n">
-        <v>360</v>
+        <v>519</v>
       </c>
       <c r="G304" t="n">
-        <v>380</v>
+        <v>546</v>
       </c>
       <c r="H304" t="n">
         <v>1</v>
@@ -7054,17 +7048,17 @@
       <c r="D305" t="inlineStr"/>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="n">
-        <v>410</v>
+        <v>143</v>
       </c>
       <c r="G305" t="n">
-        <v>425</v>
+        <v>107</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
@@ -7075,10 +7069,10 @@
       <c r="D306" t="inlineStr"/>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="n">
-        <v>490</v>
+        <v>105</v>
       </c>
       <c r="G306" t="n">
-        <v>520</v>
+        <v>69</v>
       </c>
       <c r="H306" t="n">
         <v>1</v>
@@ -7096,10 +7090,10 @@
       <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="n">
-        <v>600</v>
+        <v>68</v>
       </c>
       <c r="G307" t="n">
-        <v>615</v>
+        <v>42</v>
       </c>
       <c r="H307" t="n">
         <v>1</v>
@@ -7111,48 +7105,48 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr"/>
-      <c r="B308" t="inlineStr"/>
-      <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr"/>
-      <c r="E308" t="inlineStr"/>
-      <c r="F308" t="n">
-        <v>650</v>
-      </c>
-      <c r="G308" t="n">
-        <v>680</v>
-      </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A308" t="n">
+        <v>65</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>65.mp4</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0</v>
+      </c>
+      <c r="D308" t="n">
+        <v>6</v>
+      </c>
+      <c r="E308" t="n">
+        <v>5</v>
+      </c>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
     </row>
     <row r="309">
-      <c r="A309" t="n">
-        <v>70</v>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>70.mp4</t>
-        </is>
-      </c>
-      <c r="C309" t="n">
-        <v>3</v>
-      </c>
-      <c r="D309" t="n">
-        <v>1</v>
-      </c>
-      <c r="E309" t="n">
-        <v>4</v>
-      </c>
-      <c r="F309" t="inlineStr"/>
-      <c r="G309" t="inlineStr"/>
-      <c r="H309" t="inlineStr"/>
-      <c r="I309" t="inlineStr"/>
+      <c r="A309" t="inlineStr"/>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="n">
+        <v>691</v>
+      </c>
+      <c r="G309" t="n">
+        <v>743</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr"/>
@@ -7161,17 +7155,17 @@
       <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="n">
-        <v>30</v>
+        <v>663</v>
       </c>
       <c r="G310" t="n">
-        <v>120</v>
+        <v>681</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>без каски</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -7182,17 +7176,17 @@
       <c r="D311" t="inlineStr"/>
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="n">
-        <v>150</v>
+        <v>478</v>
       </c>
       <c r="G311" t="n">
-        <v>165</v>
+        <v>650</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
@@ -7203,10 +7197,10 @@
       <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="n">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="G312" t="n">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="H312" t="n">
         <v>1</v>
@@ -7224,37 +7218,37 @@
       <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="n">
-        <v>560</v>
+        <v>320</v>
       </c>
       <c r="G313" t="n">
-        <v>620</v>
+        <v>346</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>без каски</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>71.mp4</t>
+          <t>66.mp4</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D314" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E314" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr"/>
@@ -7268,17 +7262,17 @@
       <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="n">
-        <v>30</v>
+        <v>510</v>
       </c>
       <c r="G315" t="n">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>без каски</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -7289,17 +7283,17 @@
       <c r="D316" t="inlineStr"/>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G316" t="n">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
@@ -7310,10 +7304,10 @@
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="n">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="G317" t="n">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="H317" t="n">
         <v>1</v>
@@ -7331,10 +7325,10 @@
       <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="n">
-        <v>730</v>
+        <v>32</v>
       </c>
       <c r="G318" t="n">
-        <v>760</v>
+        <v>56</v>
       </c>
       <c r="H318" t="n">
         <v>1</v>
@@ -7346,25 +7340,27 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr"/>
-      <c r="B319" t="inlineStr"/>
-      <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr"/>
-      <c r="E319" t="inlineStr"/>
-      <c r="F319" t="n">
-        <v>880</v>
-      </c>
-      <c r="G319" t="n">
-        <v>910</v>
-      </c>
-      <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A319" t="n">
+        <v>67</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>67.mp4</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>4</v>
+      </c>
+      <c r="E319" t="n">
+        <v>8</v>
+      </c>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr"/>
@@ -7373,10 +7369,10 @@
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="n">
-        <v>960</v>
+        <v>807</v>
       </c>
       <c r="G320" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="H320" t="n">
         <v>1</v>
@@ -7394,42 +7390,40 @@
       <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="n">
-        <v>1120</v>
+        <v>712</v>
       </c>
       <c r="G321" t="n">
-        <v>1140</v>
+        <v>780</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
-        <v>72</v>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>72.mp4</t>
-        </is>
-      </c>
-      <c r="C322" t="n">
-        <v>2</v>
-      </c>
-      <c r="D322" t="n">
-        <v>0</v>
-      </c>
-      <c r="E322" t="n">
-        <v>4</v>
-      </c>
-      <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr"/>
-      <c r="H322" t="inlineStr"/>
-      <c r="I322" t="inlineStr"/>
+      <c r="A322" t="inlineStr"/>
+      <c r="B322" t="inlineStr"/>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="n">
+        <v>450</v>
+      </c>
+      <c r="G322" t="n">
+        <v>498</v>
+      </c>
+      <c r="H322" t="n">
+        <v>1</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr"/>
@@ -7438,17 +7432,17 @@
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="n">
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="G323" t="n">
-        <v>370</v>
+        <v>443</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>без каски</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -7459,10 +7453,10 @@
       <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="n">
-        <v>440</v>
+        <v>197</v>
       </c>
       <c r="G324" t="n">
-        <v>470</v>
+        <v>232</v>
       </c>
       <c r="H324" t="n">
         <v>1</v>
@@ -7480,17 +7474,17 @@
       <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="n">
-        <v>510</v>
+        <v>165</v>
       </c>
       <c r="G325" t="n">
-        <v>525</v>
+        <v>196</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
@@ -7501,15 +7495,718 @@
       <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="n">
+        <v>81</v>
+      </c>
+      <c r="G326" t="n">
+        <v>110</v>
+      </c>
+      <c r="H326" t="n">
+        <v>1</v>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr"/>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="n">
+        <v>31</v>
+      </c>
+      <c r="G327" t="n">
+        <v>80</v>
+      </c>
+      <c r="H327" t="n">
+        <v>1</v>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>68</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>68.mp4</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>3</v>
+      </c>
+      <c r="D328" t="n">
+        <v>2</v>
+      </c>
+      <c r="E328" t="n">
+        <v>4</v>
+      </c>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr"/>
+      <c r="B329" t="inlineStr"/>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="n">
+        <v>80</v>
+      </c>
+      <c r="G329" t="n">
+        <v>95</v>
+      </c>
+      <c r="H329" t="n">
+        <v>1</v>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr"/>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="n">
+        <v>200</v>
+      </c>
+      <c r="G330" t="n">
+        <v>250</v>
+      </c>
+      <c r="H330" t="n">
+        <v>1</v>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr"/>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="n">
+        <v>280</v>
+      </c>
+      <c r="G331" t="n">
+        <v>310</v>
+      </c>
+      <c r="H331" t="n">
+        <v>1</v>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr"/>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="n">
+        <v>340</v>
+      </c>
+      <c r="G332" t="n">
+        <v>365</v>
+      </c>
+      <c r="H332" t="n">
+        <v>1</v>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>69</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>69.mp4</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>4</v>
+      </c>
+      <c r="D333" t="n">
+        <v>4</v>
+      </c>
+      <c r="E333" t="n">
+        <v>8</v>
+      </c>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr"/>
+      <c r="B334" t="inlineStr"/>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="inlineStr"/>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="n">
+        <v>85</v>
+      </c>
+      <c r="G334" t="n">
+        <v>100</v>
+      </c>
+      <c r="H334" t="n">
+        <v>3</v>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr"/>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="n">
+        <v>230</v>
+      </c>
+      <c r="G335" t="n">
+        <v>250</v>
+      </c>
+      <c r="H335" t="n">
+        <v>1</v>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr"/>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="n">
+        <v>260</v>
+      </c>
+      <c r="G336" t="n">
+        <v>280</v>
+      </c>
+      <c r="H336" t="n">
+        <v>1</v>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr"/>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="n">
+        <v>360</v>
+      </c>
+      <c r="G337" t="n">
+        <v>380</v>
+      </c>
+      <c r="H337" t="n">
+        <v>1</v>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr"/>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="n">
+        <v>410</v>
+      </c>
+      <c r="G338" t="n">
+        <v>425</v>
+      </c>
+      <c r="H338" t="n">
+        <v>1</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr"/>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="n">
+        <v>490</v>
+      </c>
+      <c r="G339" t="n">
+        <v>520</v>
+      </c>
+      <c r="H339" t="n">
+        <v>1</v>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr"/>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="n">
+        <v>600</v>
+      </c>
+      <c r="G340" t="n">
+        <v>615</v>
+      </c>
+      <c r="H340" t="n">
+        <v>1</v>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr"/>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="n">
+        <v>650</v>
+      </c>
+      <c r="G341" t="n">
+        <v>680</v>
+      </c>
+      <c r="H341" t="n">
+        <v>1</v>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>70</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>70.mp4</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>3</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1</v>
+      </c>
+      <c r="E342" t="n">
+        <v>4</v>
+      </c>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr"/>
+      <c r="B343" t="inlineStr"/>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="n">
+        <v>30</v>
+      </c>
+      <c r="G343" t="n">
+        <v>120</v>
+      </c>
+      <c r="H343" t="n">
+        <v>3</v>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr"/>
+      <c r="B344" t="inlineStr"/>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="n">
+        <v>150</v>
+      </c>
+      <c r="G344" t="n">
+        <v>165</v>
+      </c>
+      <c r="H344" t="n">
+        <v>1</v>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr"/>
+      <c r="B345" t="inlineStr"/>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="n">
+        <v>270</v>
+      </c>
+      <c r="G345" t="n">
+        <v>280</v>
+      </c>
+      <c r="H345" t="n">
+        <v>1</v>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr"/>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="n">
+        <v>560</v>
+      </c>
+      <c r="G346" t="n">
+        <v>620</v>
+      </c>
+      <c r="H346" t="n">
+        <v>3</v>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>71</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>71.mp4</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>3</v>
+      </c>
+      <c r="D347" t="n">
+        <v>3</v>
+      </c>
+      <c r="E347" t="n">
+        <v>7</v>
+      </c>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr"/>
+      <c r="B348" t="inlineStr"/>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="n">
+        <v>30</v>
+      </c>
+      <c r="G348" t="n">
+        <v>80</v>
+      </c>
+      <c r="H348" t="n">
+        <v>3</v>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr"/>
+      <c r="B349" t="inlineStr"/>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="n">
+        <v>110</v>
+      </c>
+      <c r="G349" t="n">
+        <v>130</v>
+      </c>
+      <c r="H349" t="n">
+        <v>1</v>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr"/>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="n">
+        <v>210</v>
+      </c>
+      <c r="G350" t="n">
+        <v>235</v>
+      </c>
+      <c r="H350" t="n">
+        <v>1</v>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr"/>
+      <c r="B351" t="inlineStr"/>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="n">
+        <v>730</v>
+      </c>
+      <c r="G351" t="n">
+        <v>760</v>
+      </c>
+      <c r="H351" t="n">
+        <v>1</v>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr"/>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="n">
+        <v>880</v>
+      </c>
+      <c r="G352" t="n">
+        <v>910</v>
+      </c>
+      <c r="H352" t="n">
+        <v>1</v>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr"/>
+      <c r="B353" t="inlineStr"/>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="n">
+        <v>960</v>
+      </c>
+      <c r="G353" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H353" t="n">
+        <v>1</v>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr"/>
+      <c r="B354" t="inlineStr"/>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="n">
+        <v>1120</v>
+      </c>
+      <c r="G354" t="n">
+        <v>1140</v>
+      </c>
+      <c r="H354" t="n">
+        <v>1</v>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>72</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>72.mp4</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>2</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0</v>
+      </c>
+      <c r="E355" t="n">
+        <v>4</v>
+      </c>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr"/>
+      <c r="B356" t="inlineStr"/>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="n">
+        <v>320</v>
+      </c>
+      <c r="G356" t="n">
+        <v>370</v>
+      </c>
+      <c r="H356" t="n">
+        <v>3</v>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr"/>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="n">
+        <v>440</v>
+      </c>
+      <c r="G357" t="n">
+        <v>470</v>
+      </c>
+      <c r="H357" t="n">
+        <v>1</v>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr"/>
+      <c r="B358" t="inlineStr"/>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="n">
+        <v>510</v>
+      </c>
+      <c r="G358" t="n">
+        <v>525</v>
+      </c>
+      <c r="H358" t="n">
+        <v>1</v>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr"/>
+      <c r="B359" t="inlineStr"/>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="n">
         <v>540</v>
       </c>
-      <c r="G326" t="n">
+      <c r="G359" t="n">
         <v>590</v>
       </c>
-      <c r="H326" t="n">
+      <c r="H359" t="n">
         <v>3</v>
       </c>
-      <c r="I326" t="inlineStr">
+      <c r="I359" t="inlineStr">
         <is>
           <t>без каски</t>
         </is>

--- a/testinfo/all_track_results.xlsx
+++ b/testinfo/all_track_results.xlsx
@@ -7349,10 +7349,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D319" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E319" t="n">
         <v>8</v>

--- a/testinfo/all_track_results.xlsx
+++ b/testinfo/all_track_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I359"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3450,7 +3450,7 @@
         <v>4</v>
       </c>
       <c r="E134" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
@@ -3530,7 +3530,7 @@
         <v>972</v>
       </c>
       <c r="G138" t="n">
-        <v>980</v>
+        <v>1015</v>
       </c>
       <c r="H138" t="n">
         <v>1</v>
@@ -3542,27 +3542,25 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>48</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>48.mp4</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>26</v>
-      </c>
-      <c r="E139" t="n">
-        <v>24</v>
-      </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>без жилета</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -3571,10 +3569,10 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>30</v>
+        <v>1160</v>
       </c>
       <c r="G140" t="n">
-        <v>84</v>
+        <v>1190</v>
       </c>
       <c r="H140" t="n">
         <v>1</v>
@@ -3586,25 +3584,27 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="n">
-        <v>85</v>
-      </c>
-      <c r="G141" t="n">
-        <v>115</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A141" t="n">
+        <v>48</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>48.mp4</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>26</v>
+      </c>
+      <c r="E141" t="n">
+        <v>24</v>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -3613,10 +3613,10 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="G142" t="n">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="H142" t="n">
         <v>1</v>
@@ -3634,10 +3634,10 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="G143" t="n">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="H143" t="n">
         <v>1</v>
@@ -3655,10 +3655,10 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="G144" t="n">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="H144" t="n">
         <v>1</v>
@@ -3676,10 +3676,10 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="G145" t="n">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
@@ -3697,10 +3697,10 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="G146" t="n">
-        <v>335</v>
+        <v>245</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -3718,10 +3718,10 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="G147" t="n">
-        <v>375</v>
+        <v>295</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -3739,10 +3739,10 @@
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
-        <v>376</v>
+        <v>296</v>
       </c>
       <c r="G148" t="n">
-        <v>440</v>
+        <v>335</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -3760,10 +3760,10 @@
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>441</v>
+        <v>336</v>
       </c>
       <c r="G149" t="n">
-        <v>474</v>
+        <v>375</v>
       </c>
       <c r="H149" t="n">
         <v>1</v>
@@ -3781,10 +3781,10 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>475</v>
+        <v>376</v>
       </c>
       <c r="G150" t="n">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="H150" t="n">
         <v>1</v>
@@ -3802,10 +3802,10 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="G151" t="n">
-        <v>554</v>
+        <v>474</v>
       </c>
       <c r="H151" t="n">
         <v>1</v>
@@ -3823,10 +3823,10 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
-        <v>555</v>
+        <v>475</v>
       </c>
       <c r="G152" t="n">
-        <v>589</v>
+        <v>514</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
@@ -3844,10 +3844,10 @@
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="G153" t="n">
-        <v>619</v>
+        <v>554</v>
       </c>
       <c r="H153" t="n">
         <v>1</v>
@@ -3865,10 +3865,10 @@
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
-        <v>620</v>
+        <v>555</v>
       </c>
       <c r="G154" t="n">
-        <v>690</v>
+        <v>589</v>
       </c>
       <c r="H154" t="n">
         <v>1</v>
@@ -3886,17 +3886,17 @@
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
-        <v>691</v>
+        <v>590</v>
       </c>
       <c r="G155" t="n">
-        <v>750</v>
+        <v>619</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>без каски</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -3907,10 +3907,10 @@
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
-        <v>845</v>
+        <v>620</v>
       </c>
       <c r="G156" t="n">
-        <v>895</v>
+        <v>690</v>
       </c>
       <c r="H156" t="n">
         <v>1</v>
@@ -3928,17 +3928,17 @@
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>960</v>
+        <v>691</v>
       </c>
       <c r="G157" t="n">
-        <v>1015</v>
+        <v>750</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без каски</t>
         </is>
       </c>
     </row>
@@ -3949,10 +3949,10 @@
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
-        <v>1016</v>
+        <v>845</v>
       </c>
       <c r="G158" t="n">
-        <v>1045</v>
+        <v>895</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
@@ -3970,10 +3970,10 @@
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
-        <v>1055</v>
+        <v>960</v>
       </c>
       <c r="G159" t="n">
-        <v>1079</v>
+        <v>1015</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
@@ -3991,10 +3991,10 @@
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
-        <v>1080</v>
+        <v>1016</v>
       </c>
       <c r="G160" t="n">
-        <v>1119</v>
+        <v>1045</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -4012,10 +4012,10 @@
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>1120</v>
+        <v>1055</v>
       </c>
       <c r="G161" t="n">
-        <v>1169</v>
+        <v>1079</v>
       </c>
       <c r="H161" t="n">
         <v>1</v>
@@ -4033,10 +4033,10 @@
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>1170</v>
+        <v>1080</v>
       </c>
       <c r="G162" t="n">
-        <v>1219</v>
+        <v>1119</v>
       </c>
       <c r="H162" t="n">
         <v>1</v>
@@ -4054,10 +4054,10 @@
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
-        <v>1220</v>
+        <v>1120</v>
       </c>
       <c r="G163" t="n">
-        <v>1290</v>
+        <v>1169</v>
       </c>
       <c r="H163" t="n">
         <v>1</v>
@@ -4069,27 +4069,25 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>49</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>49.mp4</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>3</v>
-      </c>
-      <c r="E164" t="n">
-        <v>4</v>
-      </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="n">
+        <v>1170</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1219</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -4098,10 +4096,10 @@
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
-        <v>230</v>
+        <v>1220</v>
       </c>
       <c r="G165" t="n">
-        <v>259</v>
+        <v>1290</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
@@ -4113,25 +4111,27 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr"/>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="n">
-        <v>260</v>
-      </c>
-      <c r="G166" t="n">
-        <v>313</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A166" t="n">
+        <v>49</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>49.mp4</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4</v>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
@@ -4140,10 +4140,10 @@
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="G167" t="n">
-        <v>365</v>
+        <v>259</v>
       </c>
       <c r="H167" t="n">
         <v>1</v>
@@ -4161,10 +4161,10 @@
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
-        <v>405</v>
+        <v>260</v>
       </c>
       <c r="G168" t="n">
-        <v>605</v>
+        <v>313</v>
       </c>
       <c r="H168" t="n">
         <v>1</v>
@@ -4176,27 +4176,25 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>50</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>50.mp4</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" t="n">
-        <v>15</v>
-      </c>
-      <c r="E169" t="n">
-        <v>14</v>
-      </c>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="n">
+        <v>330</v>
+      </c>
+      <c r="G169" t="n">
+        <v>365</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -4205,10 +4203,10 @@
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
-        <v>165</v>
+        <v>405</v>
       </c>
       <c r="G170" t="n">
-        <v>224</v>
+        <v>605</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
@@ -4220,25 +4218,27 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr"/>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="n">
-        <v>225</v>
-      </c>
-      <c r="G171" t="n">
-        <v>259</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A171" t="n">
+        <v>50</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>50.mp4</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>15</v>
+      </c>
+      <c r="E171" t="n">
+        <v>14</v>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr"/>
@@ -4247,10 +4247,10 @@
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="G172" t="n">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
@@ -4268,10 +4268,10 @@
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="G173" t="n">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="H173" t="n">
         <v>1</v>
@@ -4289,10 +4289,10 @@
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="n">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="G174" t="n">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="H174" t="n">
         <v>1</v>
@@ -4310,17 +4310,17 @@
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="n">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="G175" t="n">
-        <v>434</v>
+        <v>344</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>без каски</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -4331,10 +4331,10 @@
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="n">
-        <v>435</v>
+        <v>345</v>
       </c>
       <c r="G176" t="n">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="H176" t="n">
         <v>1</v>
@@ -4352,17 +4352,17 @@
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="G177" t="n">
-        <v>505</v>
+        <v>434</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без каски</t>
         </is>
       </c>
     </row>
@@ -4373,10 +4373,10 @@
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="n">
-        <v>530</v>
+        <v>435</v>
       </c>
       <c r="G178" t="n">
-        <v>604</v>
+        <v>474</v>
       </c>
       <c r="H178" t="n">
         <v>1</v>
@@ -4394,10 +4394,10 @@
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="n">
-        <v>605</v>
+        <v>475</v>
       </c>
       <c r="G179" t="n">
-        <v>654</v>
+        <v>505</v>
       </c>
       <c r="H179" t="n">
         <v>1</v>
@@ -4415,10 +4415,10 @@
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="n">
-        <v>655</v>
+        <v>530</v>
       </c>
       <c r="G180" t="n">
-        <v>685</v>
+        <v>604</v>
       </c>
       <c r="H180" t="n">
         <v>1</v>
@@ -4436,10 +4436,10 @@
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
-        <v>712</v>
+        <v>605</v>
       </c>
       <c r="G181" t="n">
-        <v>730</v>
+        <v>654</v>
       </c>
       <c r="H181" t="n">
         <v>1</v>
@@ -4457,10 +4457,10 @@
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="n">
-        <v>980</v>
+        <v>655</v>
       </c>
       <c r="G182" t="n">
-        <v>1010</v>
+        <v>685</v>
       </c>
       <c r="H182" t="n">
         <v>1</v>
@@ -4478,42 +4478,40 @@
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="n">
-        <v>1011</v>
+        <v>712</v>
       </c>
       <c r="G183" t="n">
-        <v>1046</v>
+        <v>730</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>без жилета</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
-        <v>51</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>51.mp4</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>1</v>
-      </c>
-      <c r="D184" t="n">
-        <v>6</v>
-      </c>
-      <c r="E184" t="n">
-        <v>6</v>
-      </c>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="n">
+        <v>980</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr"/>
@@ -4522,40 +4520,42 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
-        <v>50</v>
+        <v>1011</v>
       </c>
       <c r="G185" t="n">
-        <v>85</v>
+        <v>1046</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr"/>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="n">
-        <v>215</v>
-      </c>
-      <c r="G186" t="n">
-        <v>242</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A186" t="n">
+        <v>51</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>51.mp4</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>6</v>
+      </c>
+      <c r="E186" t="n">
+        <v>6</v>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
@@ -4564,10 +4564,10 @@
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="n">
-        <v>930</v>
+        <v>50</v>
       </c>
       <c r="G187" t="n">
-        <v>954</v>
+        <v>85</v>
       </c>
       <c r="H187" t="n">
         <v>1</v>
@@ -4585,10 +4585,10 @@
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="n">
-        <v>955</v>
+        <v>215</v>
       </c>
       <c r="G188" t="n">
-        <v>979</v>
+        <v>242</v>
       </c>
       <c r="H188" t="n">
         <v>1</v>
@@ -4606,10 +4606,10 @@
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="n">
-        <v>980</v>
+        <v>930</v>
       </c>
       <c r="G189" t="n">
-        <v>1035</v>
+        <v>954</v>
       </c>
       <c r="H189" t="n">
         <v>1</v>
@@ -4627,10 +4627,10 @@
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="n">
-        <v>1333</v>
+        <v>955</v>
       </c>
       <c r="G190" t="n">
-        <v>1370</v>
+        <v>979</v>
       </c>
       <c r="H190" t="n">
         <v>1</v>
@@ -4642,27 +4642,25 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>52</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>52.mp4</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>6</v>
-      </c>
-      <c r="D191" t="n">
-        <v>5</v>
-      </c>
-      <c r="E191" t="n">
-        <v>11</v>
-      </c>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>980</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
@@ -4671,10 +4669,10 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="n">
-        <v>17</v>
+        <v>1333</v>
       </c>
       <c r="G192" t="n">
-        <v>41</v>
+        <v>1370</v>
       </c>
       <c r="H192" t="n">
         <v>1</v>
@@ -4686,25 +4684,27 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr"/>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="n">
-        <v>45</v>
-      </c>
-      <c r="G193" t="n">
-        <v>85</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A193" t="n">
+        <v>52</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>52.mp4</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>11</v>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
@@ -4713,10 +4713,10 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="G194" t="n">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
@@ -4734,10 +4734,10 @@
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="G195" t="n">
-        <v>256</v>
+        <v>85</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
@@ -4755,10 +4755,10 @@
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="G196" t="n">
-        <v>560</v>
+        <v>207</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
@@ -4776,10 +4776,10 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
-        <v>628</v>
+        <v>208</v>
       </c>
       <c r="G197" t="n">
-        <v>667</v>
+        <v>256</v>
       </c>
       <c r="H197" t="n">
         <v>1</v>
@@ -4797,10 +4797,10 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
-        <v>690</v>
+        <v>270</v>
       </c>
       <c r="G198" t="n">
-        <v>726</v>
+        <v>560</v>
       </c>
       <c r="H198" t="n">
         <v>1</v>
@@ -4818,10 +4818,10 @@
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
-        <v>727</v>
+        <v>628</v>
       </c>
       <c r="G199" t="n">
-        <v>772</v>
+        <v>667</v>
       </c>
       <c r="H199" t="n">
         <v>1</v>
@@ -4839,10 +4839,10 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
-        <v>773</v>
+        <v>690</v>
       </c>
       <c r="G200" t="n">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="H200" t="n">
         <v>1</v>
@@ -4860,10 +4860,10 @@
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
-        <v>850</v>
+        <v>727</v>
       </c>
       <c r="G201" t="n">
-        <v>900</v>
+        <v>772</v>
       </c>
       <c r="H201" t="n">
         <v>1</v>
@@ -4881,10 +4881,10 @@
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
-        <v>933</v>
+        <v>773</v>
       </c>
       <c r="G202" t="n">
-        <v>1456</v>
+        <v>810</v>
       </c>
       <c r="H202" t="n">
         <v>1</v>
@@ -4896,27 +4896,25 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>53</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>53.mp4</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>2</v>
-      </c>
-      <c r="D203" t="n">
-        <v>22</v>
-      </c>
-      <c r="E203" t="n">
-        <v>24</v>
-      </c>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="n">
+        <v>850</v>
+      </c>
+      <c r="G203" t="n">
+        <v>900</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -4925,10 +4923,10 @@
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="n">
-        <v>21</v>
+        <v>933</v>
       </c>
       <c r="G204" t="n">
-        <v>74</v>
+        <v>1456</v>
       </c>
       <c r="H204" t="n">
         <v>1</v>
@@ -4940,25 +4938,27 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr"/>
-      <c r="B205" t="inlineStr"/>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="n">
-        <v>75</v>
-      </c>
-      <c r="G205" t="n">
-        <v>159</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A205" t="n">
+        <v>53</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>53.mp4</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>2</v>
+      </c>
+      <c r="D205" t="n">
+        <v>22</v>
+      </c>
+      <c r="E205" t="n">
+        <v>24</v>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -4967,10 +4967,10 @@
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="G206" t="n">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
@@ -4988,10 +4988,10 @@
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="G207" t="n">
-        <v>263</v>
+        <v>159</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
@@ -5009,10 +5009,10 @@
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="n">
-        <v>265</v>
+        <v>160</v>
       </c>
       <c r="G208" t="n">
-        <v>320</v>
+        <v>215</v>
       </c>
       <c r="H208" t="n">
         <v>1</v>
@@ -5030,15 +5030,19 @@
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
-        <v>321</v>
+        <v>216</v>
       </c>
       <c r="G209" t="n">
         <v>263</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr"/>
@@ -5047,10 +5051,10 @@
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="n">
-        <v>441</v>
+        <v>265</v>
       </c>
       <c r="G210" t="n">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="H210" t="n">
         <v>1</v>
@@ -5068,10 +5072,10 @@
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
-        <v>519</v>
+        <v>321</v>
       </c>
       <c r="G211" t="n">
-        <v>541</v>
+        <v>263</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -5085,17 +5089,17 @@
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>542</v>
+        <v>441</v>
       </c>
       <c r="G212" t="n">
-        <v>583</v>
+        <v>464</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>без жилета</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -5106,10 +5110,10 @@
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="n">
-        <v>706</v>
+        <v>519</v>
       </c>
       <c r="G213" t="n">
-        <v>741</v>
+        <v>541</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -5123,17 +5127,17 @@
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="n">
-        <v>742</v>
+        <v>542</v>
       </c>
       <c r="G214" t="n">
-        <v>789</v>
+        <v>583</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
@@ -5144,19 +5148,15 @@
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="n">
-        <v>800</v>
+        <v>706</v>
       </c>
       <c r="G215" t="n">
-        <v>836</v>
+        <v>741</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr"/>
@@ -5165,10 +5165,10 @@
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="n">
-        <v>844</v>
+        <v>742</v>
       </c>
       <c r="G216" t="n">
-        <v>878</v>
+        <v>789</v>
       </c>
       <c r="H216" t="n">
         <v>1</v>
@@ -5186,10 +5186,10 @@
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="n">
-        <v>879</v>
+        <v>800</v>
       </c>
       <c r="G217" t="n">
-        <v>929</v>
+        <v>836</v>
       </c>
       <c r="H217" t="n">
         <v>1</v>
@@ -5207,10 +5207,10 @@
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="n">
-        <v>930</v>
+        <v>844</v>
       </c>
       <c r="G218" t="n">
-        <v>980</v>
+        <v>878</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
@@ -5228,10 +5228,10 @@
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="n">
-        <v>981</v>
+        <v>879</v>
       </c>
       <c r="G219" t="n">
-        <v>1016</v>
+        <v>929</v>
       </c>
       <c r="H219" t="n">
         <v>1</v>
@@ -5249,10 +5249,10 @@
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="n">
-        <v>1020</v>
+        <v>930</v>
       </c>
       <c r="G220" t="n">
-        <v>1064</v>
+        <v>980</v>
       </c>
       <c r="H220" t="n">
         <v>1</v>
@@ -5270,10 +5270,10 @@
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="n">
-        <v>1065</v>
+        <v>981</v>
       </c>
       <c r="G221" t="n">
-        <v>1130</v>
+        <v>1016</v>
       </c>
       <c r="H221" t="n">
         <v>1</v>
@@ -5291,10 +5291,10 @@
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="n">
-        <v>1131</v>
+        <v>1020</v>
       </c>
       <c r="G222" t="n">
-        <v>1169</v>
+        <v>1064</v>
       </c>
       <c r="H222" t="n">
         <v>1</v>
@@ -5312,10 +5312,10 @@
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="n">
-        <v>1170</v>
+        <v>1065</v>
       </c>
       <c r="G223" t="n">
-        <v>1240</v>
+        <v>1130</v>
       </c>
       <c r="H223" t="n">
         <v>1</v>
@@ -5333,10 +5333,10 @@
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="n">
-        <v>1260</v>
+        <v>1131</v>
       </c>
       <c r="G224" t="n">
-        <v>1280</v>
+        <v>1169</v>
       </c>
       <c r="H224" t="n">
         <v>1</v>
@@ -5354,10 +5354,10 @@
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="n">
-        <v>1310</v>
+        <v>1170</v>
       </c>
       <c r="G225" t="n">
-        <v>1330</v>
+        <v>1240</v>
       </c>
       <c r="H225" t="n">
         <v>1</v>
@@ -5375,10 +5375,10 @@
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="n">
-        <v>1338</v>
+        <v>1260</v>
       </c>
       <c r="G226" t="n">
-        <v>1379</v>
+        <v>1280</v>
       </c>
       <c r="H226" t="n">
         <v>1</v>
@@ -5396,10 +5396,10 @@
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="n">
-        <v>1381</v>
+        <v>1310</v>
       </c>
       <c r="G227" t="n">
-        <v>1415</v>
+        <v>1330</v>
       </c>
       <c r="H227" t="n">
         <v>1</v>
@@ -5411,27 +5411,25 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
-        <v>54</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>54.mp4</t>
-        </is>
-      </c>
-      <c r="C228" t="n">
-        <v>2</v>
-      </c>
-      <c r="D228" t="n">
-        <v>8</v>
-      </c>
-      <c r="E228" t="n">
-        <v>9</v>
-      </c>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
+      <c r="A228" t="inlineStr"/>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="n">
+        <v>1338</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1379</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr"/>
@@ -5440,10 +5438,10 @@
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="n">
-        <v>160</v>
+        <v>1381</v>
       </c>
       <c r="G229" t="n">
-        <v>197</v>
+        <v>1415</v>
       </c>
       <c r="H229" t="n">
         <v>1</v>
@@ -5455,25 +5453,27 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr"/>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="n">
-        <v>230</v>
-      </c>
-      <c r="G230" t="n">
-        <v>255</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A230" t="n">
+        <v>54</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>54.mp4</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>2</v>
+      </c>
+      <c r="D230" t="n">
+        <v>8</v>
+      </c>
+      <c r="E230" t="n">
+        <v>9</v>
+      </c>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr"/>
@@ -5482,10 +5482,10 @@
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="G231" t="n">
-        <v>315</v>
+        <v>197</v>
       </c>
       <c r="H231" t="n">
         <v>1</v>
@@ -5503,10 +5503,10 @@
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="n">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="G232" t="n">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="H232" t="n">
         <v>1</v>
@@ -5524,10 +5524,10 @@
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="G233" t="n">
-        <v>423</v>
+        <v>315</v>
       </c>
       <c r="H233" t="n">
         <v>1</v>
@@ -5545,10 +5545,10 @@
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="n">
-        <v>511</v>
+        <v>317</v>
       </c>
       <c r="G234" t="n">
-        <v>555</v>
+        <v>360</v>
       </c>
       <c r="H234" t="n">
         <v>1</v>
@@ -5566,10 +5566,10 @@
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
-        <v>603</v>
+        <v>365</v>
       </c>
       <c r="G235" t="n">
-        <v>639</v>
+        <v>423</v>
       </c>
       <c r="H235" t="n">
         <v>1</v>
@@ -5587,10 +5587,10 @@
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="n">
-        <v>640</v>
+        <v>511</v>
       </c>
       <c r="G236" t="n">
-        <v>705</v>
+        <v>555</v>
       </c>
       <c r="H236" t="n">
         <v>1</v>
@@ -5608,10 +5608,10 @@
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="n">
-        <v>706</v>
+        <v>603</v>
       </c>
       <c r="G237" t="n">
-        <v>746</v>
+        <v>639</v>
       </c>
       <c r="H237" t="n">
         <v>1</v>
@@ -5623,27 +5623,25 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
-        <v>55</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>55.mp4</t>
-        </is>
-      </c>
-      <c r="C238" t="n">
-        <v>2</v>
-      </c>
-      <c r="D238" t="n">
-        <v>6</v>
-      </c>
-      <c r="E238" t="n">
-        <v>8</v>
-      </c>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
+      <c r="A238" t="inlineStr"/>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="n">
+        <v>640</v>
+      </c>
+      <c r="G238" t="n">
+        <v>705</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr"/>
@@ -5652,36 +5650,42 @@
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="n">
-        <v>110</v>
+        <v>706</v>
       </c>
       <c r="G239" t="n">
-        <v>139</v>
+        <v>746</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr"/>
-      <c r="B240" t="inlineStr"/>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="n">
-        <v>265</v>
-      </c>
-      <c r="G240" t="n">
-        <v>287</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A240" t="n">
+        <v>55</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>55.mp4</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>6</v>
+      </c>
+      <c r="E240" t="n">
+        <v>8</v>
+      </c>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr"/>
@@ -5690,19 +5694,15 @@
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="n">
-        <v>610</v>
+        <v>110</v>
       </c>
       <c r="G241" t="n">
-        <v>697</v>
+        <v>139</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr"/>
@@ -5711,10 +5711,10 @@
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="n">
-        <v>710</v>
+        <v>265</v>
       </c>
       <c r="G242" t="n">
-        <v>724</v>
+        <v>287</v>
       </c>
       <c r="H242" t="n">
         <v>1</v>
@@ -5732,10 +5732,10 @@
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="n">
-        <v>753</v>
+        <v>610</v>
       </c>
       <c r="G243" t="n">
-        <v>776</v>
+        <v>697</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
@@ -5753,10 +5753,10 @@
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="n">
-        <v>844</v>
+        <v>710</v>
       </c>
       <c r="G244" t="n">
-        <v>862</v>
+        <v>724</v>
       </c>
       <c r="H244" t="n">
         <v>1</v>
@@ -5774,10 +5774,10 @@
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="n">
-        <v>868</v>
+        <v>753</v>
       </c>
       <c r="G245" t="n">
-        <v>903</v>
+        <v>776</v>
       </c>
       <c r="H245" t="n">
         <v>1</v>
@@ -5795,10 +5795,10 @@
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>947</v>
+        <v>844</v>
       </c>
       <c r="G246" t="n">
-        <v>975</v>
+        <v>862</v>
       </c>
       <c r="H246" t="n">
         <v>1</v>
@@ -5810,27 +5810,25 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
-        <v>56</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>56.mp4</t>
-        </is>
-      </c>
-      <c r="C247" t="n">
-        <v>2</v>
-      </c>
-      <c r="D247" t="n">
-        <v>4</v>
-      </c>
-      <c r="E247" t="n">
-        <v>6</v>
-      </c>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr"/>
+      <c r="A247" t="inlineStr"/>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="n">
+        <v>868</v>
+      </c>
+      <c r="G247" t="n">
+        <v>903</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr"/>
@@ -5839,10 +5837,10 @@
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="n">
-        <v>183</v>
+        <v>947</v>
       </c>
       <c r="G248" t="n">
-        <v>212</v>
+        <v>975</v>
       </c>
       <c r="H248" t="n">
         <v>1</v>
@@ -5854,20 +5852,26 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr"/>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr"/>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="n">
-        <v>224</v>
-      </c>
-      <c r="G249" t="n">
-        <v>256</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+      <c r="A249" t="n">
+        <v>56</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>56.mp4</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>2</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4</v>
+      </c>
+      <c r="E249" t="n">
+        <v>6</v>
+      </c>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
     </row>
     <row r="250">
@@ -5877,17 +5881,17 @@
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="n">
-        <v>300</v>
+        <v>183</v>
       </c>
       <c r="G250" t="n">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>без жилета</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -5898,19 +5902,15 @@
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="n">
-        <v>355</v>
+        <v>224</v>
       </c>
       <c r="G251" t="n">
-        <v>385</v>
+        <v>256</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr"/>
@@ -5919,17 +5919,17 @@
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>424</v>
+        <v>300</v>
       </c>
       <c r="G252" t="n">
-        <v>485</v>
+        <v>325</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
@@ -5940,10 +5940,10 @@
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>557</v>
+        <v>355</v>
       </c>
       <c r="G253" t="n">
-        <v>579</v>
+        <v>385</v>
       </c>
       <c r="H253" t="n">
         <v>1</v>
@@ -5955,27 +5955,25 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
-        <v>57</v>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>57.mp4</t>
-        </is>
-      </c>
-      <c r="C254" t="n">
-        <v>0</v>
-      </c>
-      <c r="D254" t="n">
-        <v>3</v>
-      </c>
-      <c r="E254" t="n">
-        <v>2</v>
-      </c>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
+      <c r="A254" t="inlineStr"/>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="n">
+        <v>424</v>
+      </c>
+      <c r="G254" t="n">
+        <v>485</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr"/>
@@ -5984,63 +5982,63 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
+        <v>557</v>
+      </c>
+      <c r="G255" t="n">
+        <v>579</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>57</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>57.mp4</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>3</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2</v>
+      </c>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr"/>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="n">
         <v>87</v>
       </c>
-      <c r="G255" t="n">
+      <c r="G257" t="n">
         <v>104</v>
       </c>
-      <c r="H255" t="n">
+      <c r="H257" t="n">
         <v>3</v>
       </c>
-      <c r="I255" t="inlineStr">
+      <c r="I257" t="inlineStr">
         <is>
           <t>без каски</t>
         </is>
       </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr"/>
-      <c r="B256" t="inlineStr"/>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr"/>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="n">
-        <v>148</v>
-      </c>
-      <c r="G256" t="n">
-        <v>164</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>58</v>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>58.mp4</t>
-        </is>
-      </c>
-      <c r="C257" t="n">
-        <v>2</v>
-      </c>
-      <c r="D257" t="n">
-        <v>2</v>
-      </c>
-      <c r="E257" t="n">
-        <v>4</v>
-      </c>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr"/>
@@ -6049,10 +6047,10 @@
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="n">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="G258" t="n">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="H258" t="n">
         <v>1</v>
@@ -6064,25 +6062,27 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr"/>
-      <c r="B259" t="inlineStr"/>
-      <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr"/>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="n">
-        <v>98</v>
-      </c>
-      <c r="G259" t="n">
-        <v>118</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A259" t="n">
+        <v>58</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>58.mp4</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>2</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2</v>
+      </c>
+      <c r="E259" t="n">
+        <v>4</v>
+      </c>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr"/>
@@ -6091,10 +6091,10 @@
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>496</v>
+        <v>63</v>
       </c>
       <c r="G260" t="n">
-        <v>526</v>
+        <v>78</v>
       </c>
       <c r="H260" t="n">
         <v>1</v>
@@ -6112,10 +6112,10 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>780</v>
+        <v>98</v>
       </c>
       <c r="G261" t="n">
-        <v>809</v>
+        <v>118</v>
       </c>
       <c r="H261" t="n">
         <v>1</v>
@@ -6127,27 +6127,25 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
-        <v>59</v>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>59.mp4</t>
-        </is>
-      </c>
-      <c r="C262" t="n">
-        <v>1</v>
-      </c>
-      <c r="D262" t="n">
-        <v>3</v>
-      </c>
-      <c r="E262" t="n">
-        <v>4</v>
-      </c>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr"/>
+      <c r="A262" t="inlineStr"/>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="n">
+        <v>496</v>
+      </c>
+      <c r="G262" t="n">
+        <v>526</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr"/>
@@ -6156,10 +6154,10 @@
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>343</v>
+        <v>780</v>
       </c>
       <c r="G263" t="n">
-        <v>363</v>
+        <v>809</v>
       </c>
       <c r="H263" t="n">
         <v>1</v>
@@ -6171,25 +6169,27 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr"/>
-      <c r="B264" t="inlineStr"/>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr"/>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="n">
-        <v>530</v>
-      </c>
-      <c r="G264" t="n">
-        <v>660</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A264" t="n">
+        <v>59</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>59.mp4</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="n">
+        <v>3</v>
+      </c>
+      <c r="E264" t="n">
+        <v>4</v>
+      </c>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr"/>
@@ -6198,17 +6198,17 @@
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>744</v>
+        <v>343</v>
       </c>
       <c r="G265" t="n">
-        <v>764</v>
+        <v>363</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>без каски</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -6219,10 +6219,10 @@
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="n">
-        <v>782</v>
+        <v>530</v>
       </c>
       <c r="G266" t="n">
-        <v>807</v>
+        <v>660</v>
       </c>
       <c r="H266" t="n">
         <v>1</v>
@@ -6234,27 +6234,25 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
-        <v>60</v>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>60.mp4</t>
-        </is>
-      </c>
-      <c r="C267" t="n">
-        <v>0</v>
-      </c>
-      <c r="D267" t="n">
+      <c r="A267" t="inlineStr"/>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="n">
+        <v>744</v>
+      </c>
+      <c r="G267" t="n">
+        <v>764</v>
+      </c>
+      <c r="H267" t="n">
         <v>3</v>
       </c>
-      <c r="E267" t="n">
-        <v>3</v>
-      </c>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr"/>
@@ -6263,10 +6261,10 @@
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="n">
-        <v>55</v>
+        <v>782</v>
       </c>
       <c r="G268" t="n">
-        <v>72</v>
+        <v>807</v>
       </c>
       <c r="H268" t="n">
         <v>1</v>
@@ -6278,25 +6276,27 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr"/>
-      <c r="B269" t="inlineStr"/>
-      <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr"/>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="n">
-        <v>80</v>
-      </c>
-      <c r="G269" t="n">
-        <v>130</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A269" t="n">
+        <v>60</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>60.mp4</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3</v>
+      </c>
+      <c r="E269" t="n">
+        <v>3</v>
+      </c>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr"/>
@@ -6305,10 +6305,10 @@
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="n">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="G270" t="n">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="H270" t="n">
         <v>1</v>
@@ -6320,27 +6320,25 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
-        <v>61</v>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>61.mp4</t>
-        </is>
-      </c>
-      <c r="C271" t="n">
-        <v>0</v>
-      </c>
-      <c r="D271" t="n">
-        <v>9</v>
-      </c>
-      <c r="E271" t="n">
-        <v>9</v>
-      </c>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr"/>
+      <c r="A271" t="inlineStr"/>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="n">
+        <v>80</v>
+      </c>
+      <c r="G271" t="n">
+        <v>130</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr"/>
@@ -6349,10 +6347,10 @@
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="n">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="G272" t="n">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="H272" t="n">
         <v>1</v>
@@ -6364,25 +6362,27 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr"/>
-      <c r="B273" t="inlineStr"/>
-      <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr"/>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="n">
-        <v>72</v>
-      </c>
-      <c r="G273" t="n">
-        <v>132</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A273" t="n">
+        <v>61</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>61.mp4</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>9</v>
+      </c>
+      <c r="E273" t="n">
+        <v>9</v>
+      </c>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr"/>
@@ -6391,10 +6391,10 @@
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="n">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="G274" t="n">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="H274" t="n">
         <v>1</v>
@@ -6412,10 +6412,10 @@
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="n">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="G275" t="n">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="H275" t="n">
         <v>1</v>
@@ -6433,10 +6433,10 @@
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="n">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="G276" t="n">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="H276" t="n">
         <v>1</v>
@@ -6454,10 +6454,10 @@
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="n">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="G277" t="n">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="H277" t="n">
         <v>1</v>
@@ -6475,10 +6475,10 @@
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="G278" t="n">
-        <v>352</v>
+        <v>250</v>
       </c>
       <c r="H278" t="n">
         <v>1</v>
@@ -6496,10 +6496,10 @@
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="n">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="G279" t="n">
-        <v>397</v>
+        <v>315</v>
       </c>
       <c r="H279" t="n">
         <v>1</v>
@@ -6517,10 +6517,10 @@
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="n">
-        <v>432</v>
+        <v>320</v>
       </c>
       <c r="G280" t="n">
-        <v>450</v>
+        <v>352</v>
       </c>
       <c r="H280" t="n">
         <v>1</v>
@@ -6532,27 +6532,25 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
-        <v>62</v>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>62.mp4</t>
-        </is>
-      </c>
-      <c r="C281" t="n">
-        <v>1</v>
-      </c>
-      <c r="D281" t="n">
-        <v>8</v>
-      </c>
-      <c r="E281" t="n">
-        <v>9</v>
-      </c>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr"/>
+      <c r="A281" t="inlineStr"/>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="n">
+        <v>352</v>
+      </c>
+      <c r="G281" t="n">
+        <v>397</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr"/>
@@ -6561,40 +6559,42 @@
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="n">
+        <v>432</v>
+      </c>
+      <c r="G282" t="n">
+        <v>450</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>62</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>62.mp4</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>8</v>
+      </c>
+      <c r="E283" t="n">
         <v>9</v>
       </c>
-      <c r="G282" t="n">
-        <v>52</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr"/>
-      <c r="B283" t="inlineStr"/>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr"/>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="n">
-        <v>433</v>
-      </c>
-      <c r="G283" t="n">
-        <v>456</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr"/>
@@ -6603,17 +6603,17 @@
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
-        <v>460</v>
+        <v>9</v>
       </c>
       <c r="G284" t="n">
-        <v>509</v>
+        <v>52</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>без каски</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -6624,10 +6624,10 @@
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="n">
-        <v>701</v>
+        <v>433</v>
       </c>
       <c r="G285" t="n">
-        <v>720</v>
+        <v>456</v>
       </c>
       <c r="H285" t="n">
         <v>1</v>
@@ -6645,17 +6645,17 @@
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="n">
-        <v>730</v>
+        <v>460</v>
       </c>
       <c r="G286" t="n">
-        <v>758</v>
+        <v>509</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без каски</t>
         </is>
       </c>
     </row>
@@ -6666,10 +6666,10 @@
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="n">
-        <v>770</v>
+        <v>701</v>
       </c>
       <c r="G287" t="n">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="H287" t="n">
         <v>1</v>
@@ -6687,10 +6687,10 @@
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="n">
-        <v>854</v>
+        <v>730</v>
       </c>
       <c r="G288" t="n">
-        <v>889</v>
+        <v>758</v>
       </c>
       <c r="H288" t="n">
         <v>1</v>
@@ -6708,10 +6708,10 @@
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="n">
-        <v>938</v>
+        <v>770</v>
       </c>
       <c r="G289" t="n">
-        <v>973</v>
+        <v>794</v>
       </c>
       <c r="H289" t="n">
         <v>1</v>
@@ -6729,10 +6729,10 @@
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="n">
-        <v>1013</v>
+        <v>854</v>
       </c>
       <c r="G290" t="n">
-        <v>984</v>
+        <v>889</v>
       </c>
       <c r="H290" t="n">
         <v>1</v>
@@ -6744,27 +6744,25 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
-        <v>63</v>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>63.mp4</t>
-        </is>
-      </c>
-      <c r="C291" t="n">
-        <v>0</v>
-      </c>
-      <c r="D291" t="n">
-        <v>7</v>
-      </c>
-      <c r="E291" t="n">
-        <v>6</v>
-      </c>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-      <c r="H291" t="inlineStr"/>
-      <c r="I291" t="inlineStr"/>
+      <c r="A291" t="inlineStr"/>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="n">
+        <v>938</v>
+      </c>
+      <c r="G291" t="n">
+        <v>973</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr"/>
@@ -6773,10 +6771,10 @@
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="n">
-        <v>351</v>
+        <v>1013</v>
       </c>
       <c r="G292" t="n">
-        <v>395</v>
+        <v>984</v>
       </c>
       <c r="H292" t="n">
         <v>1</v>
@@ -6788,25 +6786,27 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr"/>
-      <c r="B293" t="inlineStr"/>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr"/>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="n">
-        <v>292</v>
-      </c>
-      <c r="G293" t="n">
-        <v>350</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A293" t="n">
+        <v>63</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>63.mp4</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>7</v>
+      </c>
+      <c r="E293" t="n">
+        <v>6</v>
+      </c>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr"/>
@@ -6815,10 +6815,10 @@
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="n">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="G294" t="n">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="H294" t="n">
         <v>1</v>
@@ -6836,17 +6836,17 @@
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="n">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="G295" t="n">
-        <v>236</v>
+        <v>350</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>без жилета</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -6857,10 +6857,10 @@
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="n">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="G296" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="H296" t="n">
         <v>1</v>
@@ -6878,42 +6878,40 @@
       <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="G297" t="n">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="n">
-        <v>64</v>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>64.mp4</t>
-        </is>
-      </c>
-      <c r="C298" t="n">
-        <v>4</v>
-      </c>
-      <c r="D298" t="n">
-        <v>5</v>
-      </c>
-      <c r="E298" t="n">
-        <v>9</v>
-      </c>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-      <c r="H298" t="inlineStr"/>
-      <c r="I298" t="inlineStr"/>
+      <c r="A298" t="inlineStr"/>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="n">
+        <v>84</v>
+      </c>
+      <c r="G298" t="n">
+        <v>130</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr"/>
@@ -6922,10 +6920,10 @@
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="n">
-        <v>1583</v>
+        <v>65</v>
       </c>
       <c r="G299" t="n">
-        <v>1613</v>
+        <v>83</v>
       </c>
       <c r="H299" t="n">
         <v>1</v>
@@ -6937,25 +6935,27 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr"/>
-      <c r="B300" t="inlineStr"/>
-      <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr"/>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="n">
-        <v>1504</v>
-      </c>
-      <c r="G300" t="n">
-        <v>1574</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A300" t="n">
+        <v>64</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>64.mp4</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>4</v>
+      </c>
+      <c r="D300" t="n">
+        <v>5</v>
+      </c>
+      <c r="E300" t="n">
+        <v>9</v>
+      </c>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr"/>
@@ -6964,10 +6964,10 @@
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="n">
-        <v>1260</v>
+        <v>1583</v>
       </c>
       <c r="G301" t="n">
-        <v>1398</v>
+        <v>1613</v>
       </c>
       <c r="H301" t="n">
         <v>1</v>
@@ -6985,10 +6985,10 @@
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="n">
-        <v>1151</v>
+        <v>1504</v>
       </c>
       <c r="G302" t="n">
-        <v>1259</v>
+        <v>1574</v>
       </c>
       <c r="H302" t="n">
         <v>1</v>
@@ -7006,10 +7006,10 @@
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="n">
-        <v>881</v>
+        <v>1260</v>
       </c>
       <c r="G303" t="n">
-        <v>902</v>
+        <v>1398</v>
       </c>
       <c r="H303" t="n">
         <v>1</v>
@@ -7027,10 +7027,10 @@
       <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="n">
-        <v>519</v>
+        <v>1151</v>
       </c>
       <c r="G304" t="n">
-        <v>546</v>
+        <v>1259</v>
       </c>
       <c r="H304" t="n">
         <v>1</v>
@@ -7048,17 +7048,17 @@
       <c r="D305" t="inlineStr"/>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="n">
-        <v>143</v>
+        <v>881</v>
       </c>
       <c r="G305" t="n">
-        <v>107</v>
+        <v>902</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>без жилета</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -7069,10 +7069,10 @@
       <c r="D306" t="inlineStr"/>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="n">
-        <v>105</v>
+        <v>519</v>
       </c>
       <c r="G306" t="n">
-        <v>69</v>
+        <v>546</v>
       </c>
       <c r="H306" t="n">
         <v>1</v>
@@ -7090,42 +7090,40 @@
       <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="n">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="G307" t="n">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
-        <v>65</v>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>65.mp4</t>
-        </is>
-      </c>
-      <c r="C308" t="n">
-        <v>0</v>
-      </c>
-      <c r="D308" t="n">
-        <v>6</v>
-      </c>
-      <c r="E308" t="n">
-        <v>5</v>
-      </c>
-      <c r="F308" t="inlineStr"/>
-      <c r="G308" t="inlineStr"/>
-      <c r="H308" t="inlineStr"/>
-      <c r="I308" t="inlineStr"/>
+      <c r="A308" t="inlineStr"/>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="n">
+        <v>105</v>
+      </c>
+      <c r="G308" t="n">
+        <v>69</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr"/>
@@ -7134,10 +7132,10 @@
       <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="n">
-        <v>691</v>
+        <v>68</v>
       </c>
       <c r="G309" t="n">
-        <v>743</v>
+        <v>42</v>
       </c>
       <c r="H309" t="n">
         <v>1</v>
@@ -7149,25 +7147,27 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr"/>
-      <c r="B310" t="inlineStr"/>
-      <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr"/>
-      <c r="E310" t="inlineStr"/>
-      <c r="F310" t="n">
-        <v>663</v>
-      </c>
-      <c r="G310" t="n">
-        <v>681</v>
-      </c>
-      <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A310" t="n">
+        <v>65</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>65.mp4</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>6</v>
+      </c>
+      <c r="E310" t="n">
+        <v>5</v>
+      </c>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr"/>
@@ -7176,17 +7176,17 @@
       <c r="D311" t="inlineStr"/>
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="n">
-        <v>478</v>
+        <v>691</v>
       </c>
       <c r="G311" t="n">
-        <v>650</v>
+        <v>743</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>без жилета</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -7197,10 +7197,10 @@
       <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="n">
-        <v>347</v>
+        <v>663</v>
       </c>
       <c r="G312" t="n">
-        <v>372</v>
+        <v>681</v>
       </c>
       <c r="H312" t="n">
         <v>1</v>
@@ -7218,42 +7218,40 @@
       <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="n">
-        <v>320</v>
+        <v>478</v>
       </c>
       <c r="G313" t="n">
-        <v>346</v>
+        <v>650</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="n">
-        <v>66</v>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>66.mp4</t>
-        </is>
-      </c>
-      <c r="C314" t="n">
-        <v>0</v>
-      </c>
-      <c r="D314" t="n">
-        <v>4</v>
-      </c>
-      <c r="E314" t="n">
-        <v>4</v>
-      </c>
-      <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr"/>
-      <c r="H314" t="inlineStr"/>
-      <c r="I314" t="inlineStr"/>
+      <c r="A314" t="inlineStr"/>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="n">
+        <v>347</v>
+      </c>
+      <c r="G314" t="n">
+        <v>372</v>
+      </c>
+      <c r="H314" t="n">
+        <v>1</v>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr"/>
@@ -7262,10 +7260,10 @@
       <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="n">
-        <v>510</v>
+        <v>320</v>
       </c>
       <c r="G315" t="n">
-        <v>537</v>
+        <v>346</v>
       </c>
       <c r="H315" t="n">
         <v>1</v>
@@ -7277,25 +7275,27 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr"/>
-      <c r="B316" t="inlineStr"/>
-      <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr"/>
-      <c r="E316" t="inlineStr"/>
-      <c r="F316" t="n">
-        <v>119</v>
-      </c>
-      <c r="G316" t="n">
-        <v>173</v>
-      </c>
-      <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="inlineStr">
-        <is>
-          <t>без жилета</t>
-        </is>
-      </c>
+      <c r="A316" t="n">
+        <v>66</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>66.mp4</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0</v>
+      </c>
+      <c r="D316" t="n">
+        <v>4</v>
+      </c>
+      <c r="E316" t="n">
+        <v>4</v>
+      </c>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr"/>
@@ -7304,10 +7304,10 @@
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="n">
-        <v>58</v>
+        <v>510</v>
       </c>
       <c r="G317" t="n">
-        <v>113</v>
+        <v>537</v>
       </c>
       <c r="H317" t="n">
         <v>1</v>
@@ -7325,42 +7325,40 @@
       <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="n">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="G318" t="n">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="n">
-        <v>67</v>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>67.mp4</t>
-        </is>
-      </c>
-      <c r="C319" t="n">
-        <v>4</v>
-      </c>
-      <c r="D319" t="n">
-        <v>5</v>
-      </c>
-      <c r="E319" t="n">
-        <v>8</v>
-      </c>
-      <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr"/>
-      <c r="H319" t="inlineStr"/>
-      <c r="I319" t="inlineStr"/>
+      <c r="A319" t="inlineStr"/>
+      <c r="B319" t="inlineStr"/>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="n">
+        <v>58</v>
+      </c>
+      <c r="G319" t="n">
+        <v>113</v>
+      </c>
+      <c r="H319" t="n">
+        <v>1</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr"/>
@@ -7369,10 +7367,10 @@
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="n">
-        <v>807</v>
+        <v>32</v>
       </c>
       <c r="G320" t="n">
-        <v>850</v>
+        <v>56</v>
       </c>
       <c r="H320" t="n">
         <v>1</v>
@@ -7384,25 +7382,27 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr"/>
-      <c r="B321" t="inlineStr"/>
-      <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr"/>
-      <c r="E321" t="inlineStr"/>
-      <c r="F321" t="n">
-        <v>712</v>
-      </c>
-      <c r="G321" t="n">
-        <v>780</v>
-      </c>
-      <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="inlineStr">
-        <is>
-          <t>без жилета</t>
-        </is>
-      </c>
+      <c r="A321" t="n">
+        <v>67</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>67.mp4</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>4</v>
+      </c>
+      <c r="D321" t="n">
+        <v>5</v>
+      </c>
+      <c r="E321" t="n">
+        <v>8</v>
+      </c>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr"/>
@@ -7411,10 +7411,10 @@
       <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="n">
-        <v>450</v>
+        <v>807</v>
       </c>
       <c r="G322" t="n">
-        <v>498</v>
+        <v>850</v>
       </c>
       <c r="H322" t="n">
         <v>1</v>
@@ -7432,17 +7432,17 @@
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="n">
-        <v>395</v>
+        <v>712</v>
       </c>
       <c r="G323" t="n">
-        <v>443</v>
+        <v>780</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
@@ -7453,10 +7453,10 @@
       <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="n">
-        <v>197</v>
+        <v>450</v>
       </c>
       <c r="G324" t="n">
-        <v>232</v>
+        <v>498</v>
       </c>
       <c r="H324" t="n">
         <v>1</v>
@@ -7474,17 +7474,17 @@
       <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="n">
-        <v>165</v>
+        <v>395</v>
       </c>
       <c r="G325" t="n">
-        <v>196</v>
+        <v>443</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>без жилета</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
@@ -7495,10 +7495,10 @@
       <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="n">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="G326" t="n">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="H326" t="n">
         <v>1</v>
@@ -7516,42 +7516,40 @@
       <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="n">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="G327" t="n">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без жилета</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
-        <v>68</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>68.mp4</t>
-        </is>
-      </c>
-      <c r="C328" t="n">
-        <v>3</v>
-      </c>
-      <c r="D328" t="n">
-        <v>2</v>
-      </c>
-      <c r="E328" t="n">
-        <v>4</v>
-      </c>
-      <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr"/>
-      <c r="I328" t="inlineStr"/>
+      <c r="A328" t="inlineStr"/>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="n">
+        <v>81</v>
+      </c>
+      <c r="G328" t="n">
+        <v>110</v>
+      </c>
+      <c r="H328" t="n">
+        <v>1</v>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr"/>
@@ -7560,11 +7558,11 @@
       <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="n">
+        <v>31</v>
+      </c>
+      <c r="G329" t="n">
         <v>80</v>
       </c>
-      <c r="G329" t="n">
-        <v>95</v>
-      </c>
       <c r="H329" t="n">
         <v>1</v>
       </c>
@@ -7575,25 +7573,27 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr"/>
-      <c r="B330" t="inlineStr"/>
-      <c r="C330" t="inlineStr"/>
-      <c r="D330" t="inlineStr"/>
-      <c r="E330" t="inlineStr"/>
-      <c r="F330" t="n">
-        <v>200</v>
-      </c>
-      <c r="G330" t="n">
-        <v>250</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A330" t="n">
+        <v>68</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>68.mp4</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>3</v>
+      </c>
+      <c r="D330" t="n">
+        <v>2</v>
+      </c>
+      <c r="E330" t="n">
+        <v>4</v>
+      </c>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr"/>
@@ -7602,10 +7602,10 @@
       <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="G331" t="n">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="H331" t="n">
         <v>1</v>
@@ -7623,10 +7623,10 @@
       <c r="D332" t="inlineStr"/>
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="G332" t="n">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="H332" t="n">
         <v>1</v>
@@ -7638,27 +7638,25 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="n">
-        <v>69</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>69.mp4</t>
-        </is>
-      </c>
-      <c r="C333" t="n">
-        <v>4</v>
-      </c>
-      <c r="D333" t="n">
-        <v>4</v>
-      </c>
-      <c r="E333" t="n">
-        <v>8</v>
-      </c>
-      <c r="F333" t="inlineStr"/>
-      <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr"/>
-      <c r="I333" t="inlineStr"/>
+      <c r="A333" t="inlineStr"/>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="n">
+        <v>280</v>
+      </c>
+      <c r="G333" t="n">
+        <v>310</v>
+      </c>
+      <c r="H333" t="n">
+        <v>1</v>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr"/>
@@ -7667,40 +7665,42 @@
       <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="n">
-        <v>85</v>
+        <v>340</v>
       </c>
       <c r="G334" t="n">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>без каски</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr"/>
-      <c r="B335" t="inlineStr"/>
-      <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr"/>
-      <c r="E335" t="inlineStr"/>
-      <c r="F335" t="n">
-        <v>230</v>
-      </c>
-      <c r="G335" t="n">
-        <v>250</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A335" t="n">
+        <v>69</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>69.mp4</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>4</v>
+      </c>
+      <c r="D335" t="n">
+        <v>4</v>
+      </c>
+      <c r="E335" t="n">
+        <v>8</v>
+      </c>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr"/>
@@ -7709,17 +7709,17 @@
       <c r="D336" t="inlineStr"/>
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="n">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="G336" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без каски</t>
         </is>
       </c>
     </row>
@@ -7730,10 +7730,10 @@
       <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="n">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="G337" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="H337" t="n">
         <v>1</v>
@@ -7751,10 +7751,10 @@
       <c r="D338" t="inlineStr"/>
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="n">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="G338" t="n">
-        <v>425</v>
+        <v>280</v>
       </c>
       <c r="H338" t="n">
         <v>1</v>
@@ -7772,10 +7772,10 @@
       <c r="D339" t="inlineStr"/>
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="n">
-        <v>490</v>
+        <v>360</v>
       </c>
       <c r="G339" t="n">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="H339" t="n">
         <v>1</v>
@@ -7793,10 +7793,10 @@
       <c r="D340" t="inlineStr"/>
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="G340" t="n">
-        <v>615</v>
+        <v>425</v>
       </c>
       <c r="H340" t="n">
         <v>1</v>
@@ -7814,10 +7814,10 @@
       <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="n">
-        <v>650</v>
+        <v>490</v>
       </c>
       <c r="G341" t="n">
-        <v>680</v>
+        <v>520</v>
       </c>
       <c r="H341" t="n">
         <v>1</v>
@@ -7829,27 +7829,25 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
-        <v>70</v>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>70.mp4</t>
-        </is>
-      </c>
-      <c r="C342" t="n">
-        <v>3</v>
-      </c>
-      <c r="D342" t="n">
-        <v>1</v>
-      </c>
-      <c r="E342" t="n">
-        <v>4</v>
-      </c>
-      <c r="F342" t="inlineStr"/>
-      <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr"/>
-      <c r="I342" t="inlineStr"/>
+      <c r="A342" t="inlineStr"/>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="n">
+        <v>600</v>
+      </c>
+      <c r="G342" t="n">
+        <v>615</v>
+      </c>
+      <c r="H342" t="n">
+        <v>1</v>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr"/>
@@ -7858,40 +7856,42 @@
       <c r="D343" t="inlineStr"/>
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="n">
-        <v>30</v>
+        <v>650</v>
       </c>
       <c r="G343" t="n">
-        <v>120</v>
+        <v>680</v>
       </c>
       <c r="H343" t="n">
+        <v>1</v>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>70</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>70.mp4</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
         <v>3</v>
       </c>
-      <c r="I343" t="inlineStr">
-        <is>
-          <t>без каски</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr"/>
-      <c r="B344" t="inlineStr"/>
-      <c r="C344" t="inlineStr"/>
-      <c r="D344" t="inlineStr"/>
-      <c r="E344" t="inlineStr"/>
-      <c r="F344" t="n">
-        <v>150</v>
-      </c>
-      <c r="G344" t="n">
-        <v>165</v>
-      </c>
-      <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="D344" t="n">
+        <v>1</v>
+      </c>
+      <c r="E344" t="n">
+        <v>4</v>
+      </c>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr"/>
@@ -7900,17 +7900,17 @@
       <c r="D345" t="inlineStr"/>
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="n">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="G345" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без каски</t>
         </is>
       </c>
     </row>
@@ -7921,42 +7921,40 @@
       <c r="D346" t="inlineStr"/>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="n">
-        <v>560</v>
+        <v>150</v>
       </c>
       <c r="G346" t="n">
-        <v>620</v>
+        <v>165</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>без каски</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="n">
-        <v>71</v>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>71.mp4</t>
-        </is>
-      </c>
-      <c r="C347" t="n">
-        <v>3</v>
-      </c>
-      <c r="D347" t="n">
-        <v>3</v>
-      </c>
-      <c r="E347" t="n">
-        <v>7</v>
-      </c>
-      <c r="F347" t="inlineStr"/>
-      <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr"/>
-      <c r="I347" t="inlineStr"/>
+      <c r="A347" t="inlineStr"/>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="n">
+        <v>270</v>
+      </c>
+      <c r="G347" t="n">
+        <v>280</v>
+      </c>
+      <c r="H347" t="n">
+        <v>1</v>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr"/>
@@ -7965,10 +7963,10 @@
       <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="n">
-        <v>30</v>
+        <v>560</v>
       </c>
       <c r="G348" t="n">
-        <v>80</v>
+        <v>620</v>
       </c>
       <c r="H348" t="n">
         <v>3</v>
@@ -7980,25 +7978,27 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr"/>
-      <c r="B349" t="inlineStr"/>
-      <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr"/>
-      <c r="E349" t="inlineStr"/>
-      <c r="F349" t="n">
-        <v>110</v>
-      </c>
-      <c r="G349" t="n">
-        <v>130</v>
-      </c>
-      <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A349" t="n">
+        <v>71</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>71.mp4</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>3</v>
+      </c>
+      <c r="D349" t="n">
+        <v>3</v>
+      </c>
+      <c r="E349" t="n">
+        <v>7</v>
+      </c>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr"/>
@@ -8007,17 +8007,17 @@
       <c r="D350" t="inlineStr"/>
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="G350" t="n">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без каски</t>
         </is>
       </c>
     </row>
@@ -8028,10 +8028,10 @@
       <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="n">
-        <v>730</v>
+        <v>110</v>
       </c>
       <c r="G351" t="n">
-        <v>760</v>
+        <v>130</v>
       </c>
       <c r="H351" t="n">
         <v>1</v>
@@ -8049,10 +8049,10 @@
       <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="n">
-        <v>880</v>
+        <v>210</v>
       </c>
       <c r="G352" t="n">
-        <v>910</v>
+        <v>235</v>
       </c>
       <c r="H352" t="n">
         <v>1</v>
@@ -8070,10 +8070,10 @@
       <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="n">
-        <v>960</v>
+        <v>730</v>
       </c>
       <c r="G353" t="n">
-        <v>1050</v>
+        <v>760</v>
       </c>
       <c r="H353" t="n">
         <v>1</v>
@@ -8091,10 +8091,10 @@
       <c r="D354" t="inlineStr"/>
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="n">
-        <v>1120</v>
+        <v>880</v>
       </c>
       <c r="G354" t="n">
-        <v>1140</v>
+        <v>910</v>
       </c>
       <c r="H354" t="n">
         <v>1</v>
@@ -8106,27 +8106,25 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="n">
-        <v>72</v>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>72.mp4</t>
-        </is>
-      </c>
-      <c r="C355" t="n">
-        <v>2</v>
-      </c>
-      <c r="D355" t="n">
-        <v>0</v>
-      </c>
-      <c r="E355" t="n">
-        <v>4</v>
-      </c>
-      <c r="F355" t="inlineStr"/>
-      <c r="G355" t="inlineStr"/>
-      <c r="H355" t="inlineStr"/>
-      <c r="I355" t="inlineStr"/>
+      <c r="A355" t="inlineStr"/>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="n">
+        <v>960</v>
+      </c>
+      <c r="G355" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H355" t="n">
+        <v>1</v>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr"/>
@@ -8135,40 +8133,42 @@
       <c r="D356" t="inlineStr"/>
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="n">
-        <v>320</v>
+        <v>1120</v>
       </c>
       <c r="G356" t="n">
-        <v>370</v>
+        <v>1140</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>без каски</t>
+          <t>без каски и жилета</t>
         </is>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr"/>
-      <c r="B357" t="inlineStr"/>
-      <c r="C357" t="inlineStr"/>
-      <c r="D357" t="inlineStr"/>
-      <c r="E357" t="inlineStr"/>
-      <c r="F357" t="n">
-        <v>440</v>
-      </c>
-      <c r="G357" t="n">
-        <v>470</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="inlineStr">
-        <is>
-          <t>без каски и жилета</t>
-        </is>
-      </c>
+      <c r="A357" t="n">
+        <v>72</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>72.mp4</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>2</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
+      <c r="E357" t="n">
+        <v>4</v>
+      </c>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr"/>
@@ -8177,17 +8177,17 @@
       <c r="D358" t="inlineStr"/>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="n">
-        <v>510</v>
+        <v>320</v>
       </c>
       <c r="G358" t="n">
-        <v>525</v>
+        <v>370</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>без каски и жилета</t>
+          <t>без каски</t>
         </is>
       </c>
     </row>
@@ -8198,15 +8198,57 @@
       <c r="D359" t="inlineStr"/>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="n">
+        <v>440</v>
+      </c>
+      <c r="G359" t="n">
+        <v>470</v>
+      </c>
+      <c r="H359" t="n">
+        <v>1</v>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr"/>
+      <c r="B360" t="inlineStr"/>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="n">
+        <v>510</v>
+      </c>
+      <c r="G360" t="n">
+        <v>525</v>
+      </c>
+      <c r="H360" t="n">
+        <v>1</v>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr"/>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="n">
         <v>540</v>
       </c>
-      <c r="G359" t="n">
+      <c r="G361" t="n">
         <v>590</v>
       </c>
-      <c r="H359" t="n">
+      <c r="H361" t="n">
         <v>3</v>
       </c>
-      <c r="I359" t="inlineStr">
+      <c r="I361" t="inlineStr">
         <is>
           <t>без каски</t>
         </is>

--- a/testinfo/all_track_results.xlsx
+++ b/testinfo/all_track_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I361"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8254,6 +8254,464 @@
         </is>
       </c>
     </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>73</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>73.mp4</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>3</v>
+      </c>
+      <c r="D362" t="n">
+        <v>3</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1</v>
+      </c>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr"/>
+      <c r="B363" t="inlineStr"/>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="n">
+        <v>488</v>
+      </c>
+      <c r="G363" t="n">
+        <v>502</v>
+      </c>
+      <c r="H363" t="n">
+        <v>2</v>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>без жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>74</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>74.mp4</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>4</v>
+      </c>
+      <c r="D364" t="n">
+        <v>6</v>
+      </c>
+      <c r="E364" t="n">
+        <v>2</v>
+      </c>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr"/>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="n">
+        <v>227</v>
+      </c>
+      <c r="G365" t="n">
+        <v>235</v>
+      </c>
+      <c r="H365" t="n">
+        <v>1</v>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr"/>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="n">
+        <v>236</v>
+      </c>
+      <c r="G366" t="n">
+        <v>275</v>
+      </c>
+      <c r="H366" t="n">
+        <v>1</v>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>75</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>75.mp4</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>9</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1</v>
+      </c>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr"/>
+      <c r="B368" t="inlineStr"/>
+      <c r="C368" t="inlineStr"/>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="n">
+        <v>127</v>
+      </c>
+      <c r="G368" t="n">
+        <v>147</v>
+      </c>
+      <c r="H368" t="n">
+        <v>1</v>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>76</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>76.mp4</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>2</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>77</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>77.mp4</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1</v>
+      </c>
+      <c r="E370" t="n">
+        <v>1</v>
+      </c>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr"/>
+      <c r="B371" t="inlineStr"/>
+      <c r="C371" t="inlineStr"/>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="n">
+        <v>736</v>
+      </c>
+      <c r="G371" t="n">
+        <v>780</v>
+      </c>
+      <c r="H371" t="n">
+        <v>3</v>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>без каски</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>78</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>78.mp4</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>1</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>79</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>79.mp4</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>1</v>
+      </c>
+      <c r="D373" t="n">
+        <v>6</v>
+      </c>
+      <c r="E373" t="n">
+        <v>1</v>
+      </c>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr"/>
+      <c r="B374" t="inlineStr"/>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="n">
+        <v>460</v>
+      </c>
+      <c r="G374" t="n">
+        <v>475</v>
+      </c>
+      <c r="H374" t="n">
+        <v>1</v>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>80</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>80.mp4</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>2</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0</v>
+      </c>
+      <c r="E375" t="n">
+        <v>2</v>
+      </c>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr"/>
+      <c r="B376" t="inlineStr"/>
+      <c r="C376" t="inlineStr"/>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="n">
+        <v>256</v>
+      </c>
+      <c r="G376" t="n">
+        <v>274</v>
+      </c>
+      <c r="H376" t="n">
+        <v>1</v>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr"/>
+      <c r="B377" t="inlineStr"/>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="n">
+        <v>710</v>
+      </c>
+      <c r="G377" t="n">
+        <v>737</v>
+      </c>
+      <c r="H377" t="n">
+        <v>1</v>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>81</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>81.mp4</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>1</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>82</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>82.mp4</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+      <c r="D379" t="n">
+        <v>3</v>
+      </c>
+      <c r="E379" t="n">
+        <v>2</v>
+      </c>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr"/>
+      <c r="B380" t="inlineStr"/>
+      <c r="C380" t="inlineStr"/>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="n">
+        <v>1755</v>
+      </c>
+      <c r="G380" t="n">
+        <v>1796</v>
+      </c>
+      <c r="H380" t="n">
+        <v>1</v>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr"/>
+      <c r="B381" t="inlineStr"/>
+      <c r="C381" t="inlineStr"/>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="n">
+        <v>1867</v>
+      </c>
+      <c r="G381" t="n">
+        <v>1889</v>
+      </c>
+      <c r="H381" t="n">
+        <v>1</v>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>без каски и жилета</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
